--- a/genshin/454795826439185836_2020-11-07_14-00-05.xlsx
+++ b/genshin/454795826439185836_2020-11-07_14-00-05.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -46,8 +48,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -419,6 +422,19 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="12" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+    <col width="50" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
+    <col width="20" customWidth="1" min="8" max="8"/>
+    <col width="12" customWidth="1" min="11" max="11"/>
+    <col width="12" customWidth="1" min="13" max="13"/>
+    <col width="12" customWidth="1" min="15" max="15"/>
+    <col width="20" customWidth="1" min="16" max="16"/>
+    <col width="20" customWidth="1" min="17" max="17"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -539,10 +555,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2020-12-12 02:01:47</t>
-        </is>
+      <c r="H2" s="1" t="n">
+        <v>44177.08457175926</v>
       </c>
       <c r="I2" t="n">
         <v>1</v>
@@ -618,10 +632,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2020-11-18 15:37:35</t>
-        </is>
+      <c r="H3" s="1" t="n">
+        <v>44153.65109953703</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -686,10 +698,8 @@
           <t>3681861208</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2020-11-09 10:18:14</t>
-        </is>
+      <c r="H4" s="1" t="n">
+        <v>44144.42932870371</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -762,10 +772,8 @@
           <t>3681861208</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2020-11-09 10:16:39</t>
-        </is>
+      <c r="H5" s="1" t="n">
+        <v>44144.42822916667</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -838,10 +846,8 @@
           <t>3681861208</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2020-11-09 10:14:44</t>
-        </is>
+      <c r="H6" s="1" t="n">
+        <v>44144.42689814815</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -914,10 +920,8 @@
           <t>3681861208</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2020-11-09 10:13:49</t>
-        </is>
+      <c r="H7" s="1" t="n">
+        <v>44144.42626157407</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -990,10 +994,8 @@
           <t>3681861208</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>2020-11-09 10:13:19</t>
-        </is>
+      <c r="H8" s="1" t="n">
+        <v>44144.42591435185</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1066,10 +1068,8 @@
           <t>3684019514</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>2020-11-08 22:28:45</t>
-        </is>
+      <c r="H9" s="1" t="n">
+        <v>44143.93663194445</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1133,10 +1133,8 @@
           <t>3684019514</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>2020-11-08 22:27:55</t>
-        </is>
+      <c r="H10" s="1" t="n">
+        <v>44143.93605324074</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1200,10 +1198,8 @@
           <t>3681861208</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>2020-11-08 19:46:38</t>
-        </is>
+      <c r="H11" s="1" t="n">
+        <v>44143.82405092593</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1271,10 +1267,8 @@
           <t>3684019514</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>2020-11-08 15:30:50</t>
-        </is>
+      <c r="H12" s="1" t="n">
+        <v>44143.64641203704</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1346,10 +1340,8 @@
           <t>3684019514</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>2020-11-08 15:09:13</t>
-        </is>
+      <c r="H13" s="1" t="n">
+        <v>44143.63140046296</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1413,10 +1405,8 @@
           <t>3684019514</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>2020-11-08 15:04:35</t>
-        </is>
+      <c r="H14" s="1" t="n">
+        <v>44143.62818287037</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1480,10 +1470,8 @@
           <t>3683852538</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>2020-11-08 14:58:12</t>
-        </is>
+      <c r="H15" s="1" t="n">
+        <v>44143.62375</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1547,10 +1535,8 @@
           <t>3684019514</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>2020-11-08 14:13:47</t>
-        </is>
+      <c r="H16" s="1" t="n">
+        <v>44143.59290509259</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1622,10 +1608,8 @@
           <t>3685445935</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>2020-11-08 12:59:06</t>
-        </is>
+      <c r="H17" s="1" t="n">
+        <v>44143.54104166666</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1697,10 +1681,8 @@
           <t>3683852538</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>2020-11-08 12:51:37</t>
-        </is>
+      <c r="H18" s="1" t="n">
+        <v>44143.5358449074</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1764,10 +1746,8 @@
           <t>3683852538</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>2020-11-08 12:33:52</t>
-        </is>
+      <c r="H19" s="1" t="n">
+        <v>44143.52351851852</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -1835,10 +1815,8 @@
           <t>3683852538</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>2020-11-08 12:27:17</t>
-        </is>
+      <c r="H20" s="1" t="n">
+        <v>44143.51894675926</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -1906,10 +1884,8 @@
           <t>3685320945</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>2020-11-08 12:26:49</t>
-        </is>
+      <c r="H21" s="1" t="n">
+        <v>44143.51862268519</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -1973,10 +1949,8 @@
           <t>3683852538</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>2020-11-08 12:21:22</t>
-        </is>
+      <c r="H22" s="1" t="n">
+        <v>44143.51483796296</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2044,10 +2018,8 @@
           <t>3683852538</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>2020-11-08 12:18:51</t>
-        </is>
+      <c r="H23" s="1" t="n">
+        <v>44143.51309027777</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2116,10 +2088,8 @@
           <t>3683852538</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>2020-11-08 12:15:35</t>
-        </is>
+      <c r="H24" s="1" t="n">
+        <v>44143.51082175926</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2187,10 +2157,8 @@
           <t>3683852538</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>2020-11-08 12:13:11</t>
-        </is>
+      <c r="H25" s="1" t="n">
+        <v>44143.50915509259</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2258,10 +2226,8 @@
           <t>3683852538</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>2020-11-08 12:11:06</t>
-        </is>
+      <c r="H26" s="1" t="n">
+        <v>44143.50770833333</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2330,10 +2296,8 @@
           <t>3683852538</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>2020-11-08 12:09:36</t>
-        </is>
+      <c r="H27" s="1" t="n">
+        <v>44143.50666666667</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2401,10 +2365,8 @@
           <t>3683852538</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>2020-11-08 12:06:08</t>
-        </is>
+      <c r="H28" s="1" t="n">
+        <v>44143.50425925926</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2472,10 +2434,8 @@
           <t>3683852538</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>2020-11-08 12:03:04</t>
-        </is>
+      <c r="H29" s="1" t="n">
+        <v>44143.50212962963</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2543,10 +2503,8 @@
           <t>3681861208</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>2020-11-08 11:52:02</t>
-        </is>
+      <c r="H30" s="1" t="n">
+        <v>44143.49446759259</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2619,10 +2577,8 @@
           <t>3682153685</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>2020-11-08 07:43:58</t>
-        </is>
+      <c r="H31" s="1" t="n">
+        <v>44143.32219907407</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2694,10 +2650,8 @@
           <t>3682153685</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>2020-11-08 07:41:08</t>
-        </is>
+      <c r="H32" s="1" t="n">
+        <v>44143.32023148148</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -2769,10 +2723,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>2020-11-08 04:14:04</t>
-        </is>
+      <c r="H33" s="1" t="n">
+        <v>44143.17643518518</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -2840,10 +2792,8 @@
           <t>3684323709</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>2020-11-08 03:11:00</t>
-        </is>
+      <c r="H34" s="1" t="n">
+        <v>44143.13263888889</v>
       </c>
       <c r="I34" t="n">
         <v>5</v>
@@ -2915,10 +2865,8 @@
           <t>3681952113</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>2020-11-08 02:35:30</t>
-        </is>
+      <c r="H35" s="1" t="n">
+        <v>44143.10798611111</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -2994,10 +2942,8 @@
           <t>3684107063</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>2020-11-08 02:34:09</t>
-        </is>
+      <c r="H36" s="1" t="n">
+        <v>44143.10704861111</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3069,10 +3015,8 @@
           <t>3681952113</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>2020-11-08 02:32:28</t>
-        </is>
+      <c r="H37" s="1" t="n">
+        <v>44143.10587962963</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3144,10 +3088,8 @@
           <t>3683852538</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>2020-11-08 02:30:57</t>
-        </is>
+      <c r="H38" s="1" t="n">
+        <v>44143.10482638889</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3211,10 +3153,8 @@
           <t>3683852538</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>2020-11-08 02:30:41</t>
-        </is>
+      <c r="H39" s="1" t="n">
+        <v>44143.1046412037</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3278,10 +3218,8 @@
           <t>3683852538</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>2020-11-08 02:29:56</t>
-        </is>
+      <c r="H40" s="1" t="n">
+        <v>44143.10412037037</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3345,10 +3283,8 @@
           <t>3682029482</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>2020-11-08 02:28:52</t>
-        </is>
+      <c r="H41" s="1" t="n">
+        <v>44143.10337962963</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3420,10 +3356,8 @@
           <t>3683852538</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>2020-11-08 02:27:35</t>
-        </is>
+      <c r="H42" s="1" t="n">
+        <v>44143.10248842592</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3487,10 +3421,8 @@
           <t>3683852538</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>2020-11-08 02:27:10</t>
-        </is>
+      <c r="H43" s="1" t="n">
+        <v>44143.10219907408</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3554,10 +3486,8 @@
           <t>3683852538</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>2020-11-08 02:26:55</t>
-        </is>
+      <c r="H44" s="1" t="n">
+        <v>44143.10202546296</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -3622,10 +3552,8 @@
           <t>3683852538</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>2020-11-08 02:26:36</t>
-        </is>
+      <c r="H45" s="1" t="n">
+        <v>44143.10180555555</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -3689,10 +3617,8 @@
           <t>3681947736</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>2020-11-08 02:26:34</t>
-        </is>
+      <c r="H46" s="1" t="n">
+        <v>44143.10178240741</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -3764,10 +3690,8 @@
           <t>3683852538</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>2020-11-08 02:25:05</t>
-        </is>
+      <c r="H47" s="1" t="n">
+        <v>44143.10075231481</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
@@ -3831,10 +3755,8 @@
           <t>3683852538</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>2020-11-08 02:23:01</t>
-        </is>
+      <c r="H48" s="1" t="n">
+        <v>44143.09931712963</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
@@ -3898,10 +3820,8 @@
           <t>3683852538</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>2020-11-08 02:21:08</t>
-        </is>
+      <c r="H49" s="1" t="n">
+        <v>44143.09800925926</v>
       </c>
       <c r="I49" t="n">
         <v>1</v>
@@ -3969,10 +3889,8 @@
           <t>3683852538</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>2020-11-08 02:18:39</t>
-        </is>
+      <c r="H50" s="1" t="n">
+        <v>44143.09628472223</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
@@ -4036,10 +3954,8 @@
           <t>3683852538</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>2020-11-08 02:18:06</t>
-        </is>
+      <c r="H51" s="1" t="n">
+        <v>44143.09590277778</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
@@ -4103,10 +4019,8 @@
           <t>3683852538</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>2020-11-08 02:15:44</t>
-        </is>
+      <c r="H52" s="1" t="n">
+        <v>44143.09425925926</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
@@ -4174,10 +4088,8 @@
           <t>3683852538</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>2020-11-08 02:10:49</t>
-        </is>
+      <c r="H53" s="1" t="n">
+        <v>44143.0908449074</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
@@ -4245,10 +4157,8 @@
           <t>3683852538</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>2020-11-08 02:03:07</t>
-        </is>
+      <c r="H54" s="1" t="n">
+        <v>44143.08549768518</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
@@ -4312,10 +4222,8 @@
           <t>3684237823</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>2020-11-08 02:02:56</t>
-        </is>
+      <c r="H55" s="1" t="n">
+        <v>44143.08537037037</v>
       </c>
       <c r="I55" t="n">
         <v>7</v>
@@ -4391,10 +4299,8 @@
           <t>3683852538</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>2020-11-08 01:58:11</t>
-        </is>
+      <c r="H56" s="1" t="n">
+        <v>44143.08207175926</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
@@ -4462,10 +4368,8 @@
           <t>3683852538</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>2020-11-08 01:56:28</t>
-        </is>
+      <c r="H57" s="1" t="n">
+        <v>44143.08087962963</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
@@ -4529,10 +4433,8 @@
           <t>3683852538</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>2020-11-08 01:55:09</t>
-        </is>
+      <c r="H58" s="1" t="n">
+        <v>44143.07996527778</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
@@ -4600,10 +4502,8 @@
           <t>3683852538</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>2020-11-08 01:53:18</t>
-        </is>
+      <c r="H59" s="1" t="n">
+        <v>44143.07868055555</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
@@ -4667,10 +4567,8 @@
           <t>3683852538</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>2020-11-08 01:52:01</t>
-        </is>
+      <c r="H60" s="1" t="n">
+        <v>44143.07778935185</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
@@ -4738,10 +4636,8 @@
           <t>3683852538</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>2020-11-08 01:43:45</t>
-        </is>
+      <c r="H61" s="1" t="n">
+        <v>44143.07204861111</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
@@ -4805,10 +4701,8 @@
           <t>3683852538</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>2020-11-08 01:37:33</t>
-        </is>
+      <c r="H62" s="1" t="n">
+        <v>44143.06774305556</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
@@ -4876,10 +4770,8 @@
           <t>3683852538</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>2020-11-08 01:34:51</t>
-        </is>
+      <c r="H63" s="1" t="n">
+        <v>44143.06586805556</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
@@ -4947,10 +4839,8 @@
           <t>3682153685</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>2020-11-08 01:30:02</t>
-        </is>
+      <c r="H64" s="1" t="n">
+        <v>44143.06252314815</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
@@ -5026,10 +4916,8 @@
           <t>3683852538</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>2020-11-08 01:28:54</t>
-        </is>
+      <c r="H65" s="1" t="n">
+        <v>44143.06173611111</v>
       </c>
       <c r="I65" t="n">
         <v>1</v>
@@ -5097,10 +4985,8 @@
           <t>3683852538</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>2020-11-08 01:25:36</t>
-        </is>
+      <c r="H66" s="1" t="n">
+        <v>44143.05944444444</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
@@ -5164,10 +5050,8 @@
           <t>3683852538</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>2020-11-08 01:24:57</t>
-        </is>
+      <c r="H67" s="1" t="n">
+        <v>44143.05899305556</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
@@ -5231,10 +5115,8 @@
           <t>3683852538</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>2020-11-08 01:20:24</t>
-        </is>
+      <c r="H68" s="1" t="n">
+        <v>44143.05583333333</v>
       </c>
       <c r="I68" t="n">
         <v>1</v>
@@ -5302,10 +5184,8 @@
           <t>3684107063</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>2020-11-08 01:19:39</t>
-        </is>
+      <c r="H69" s="1" t="n">
+        <v>44143.0553125</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
@@ -5381,10 +5261,8 @@
           <t>3683852538</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>2020-11-08 01:10:27</t>
-        </is>
+      <c r="H70" s="1" t="n">
+        <v>44143.04892361111</v>
       </c>
       <c r="I70" t="n">
         <v>1</v>
@@ -5453,10 +5331,8 @@
           <t>3682120864</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>2020-11-08 01:03:25</t>
-        </is>
+      <c r="H71" s="1" t="n">
+        <v>44143.04403935185</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
@@ -5520,10 +5396,8 @@
           <t>3684107063</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>2020-11-08 01:01:05</t>
-        </is>
+      <c r="H72" s="1" t="n">
+        <v>44143.04241898148</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
@@ -5595,10 +5469,8 @@
           <t>3682120864</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>2020-11-08 00:58:52</t>
-        </is>
+      <c r="H73" s="1" t="n">
+        <v>44143.04087962963</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
@@ -5674,10 +5546,8 @@
           <t>3682716363</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>2020-11-08 00:50:15</t>
-        </is>
+      <c r="H74" s="1" t="n">
+        <v>44143.03489583333</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
@@ -5741,10 +5611,8 @@
           <t>3683852538</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>2020-11-08 00:46:50</t>
-        </is>
+      <c r="H75" s="1" t="n">
+        <v>44143.03252314815</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
@@ -5808,10 +5676,8 @@
           <t>3681940475</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>2020-11-08 00:44:33</t>
-        </is>
+      <c r="H76" s="1" t="n">
+        <v>44143.0309375</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
@@ -5887,10 +5753,8 @@
           <t>3683852538</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>2020-11-08 00:37:57</t>
-        </is>
+      <c r="H77" s="1" t="n">
+        <v>44143.02635416666</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
@@ -5958,10 +5822,8 @@
           <t>3684019514</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>2020-11-08 00:33:46</t>
-        </is>
+      <c r="H78" s="1" t="n">
+        <v>44143.02344907408</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
@@ -6026,10 +5888,8 @@
           <t>3683852538</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>2020-11-08 00:33:15</t>
-        </is>
+      <c r="H79" s="1" t="n">
+        <v>44143.02309027778</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
@@ -6097,10 +5957,8 @@
           <t>3681952113</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>2020-11-08 00:32:13</t>
-        </is>
+      <c r="H80" s="1" t="n">
+        <v>44143.02237268518</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
@@ -6164,10 +6022,8 @@
           <t>3682716363</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>2020-11-08 00:31:15</t>
-        </is>
+      <c r="H81" s="1" t="n">
+        <v>44143.02170138889</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
@@ -6235,10 +6091,8 @@
           <t>3682120864</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>2020-11-08 00:31:10</t>
-        </is>
+      <c r="H82" s="1" t="n">
+        <v>44143.02164351852</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
@@ -6302,10 +6156,8 @@
           <t>3684010091</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>2020-11-08 00:29:13</t>
-        </is>
+      <c r="H83" s="1" t="n">
+        <v>44143.02028935185</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
@@ -6369,10 +6221,8 @@
           <t>3683852538</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>2020-11-08 00:28:20</t>
-        </is>
+      <c r="H84" s="1" t="n">
+        <v>44143.01967592593</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
@@ -6436,10 +6286,8 @@
           <t>3681940475</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>2020-11-08 00:27:27</t>
-        </is>
+      <c r="H85" s="1" t="n">
+        <v>44143.0190625</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
@@ -6515,10 +6363,8 @@
           <t>3682716363</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>2020-11-08 00:26:54</t>
-        </is>
+      <c r="H86" s="1" t="n">
+        <v>44143.01868055556</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
@@ -6582,10 +6428,8 @@
           <t>3681940475</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>2020-11-08 00:25:26</t>
-        </is>
+      <c r="H87" s="1" t="n">
+        <v>44143.01766203704</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
@@ -6661,10 +6505,8 @@
           <t>3683431412</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>2020-11-08 00:21:29</t>
-        </is>
+      <c r="H88" s="1" t="n">
+        <v>44143.01491898148</v>
       </c>
       <c r="I88" t="n">
         <v>1</v>
@@ -6728,10 +6570,8 @@
           <t>3683852538</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>2020-11-08 00:15:53</t>
-        </is>
+      <c r="H89" s="1" t="n">
+        <v>44143.0110300926</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
@@ -6799,10 +6639,8 @@
           <t>3683852538</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>2020-11-08 00:13:45</t>
-        </is>
+      <c r="H90" s="1" t="n">
+        <v>44143.00954861111</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
@@ -6870,10 +6708,8 @@
           <t>3681861208</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>2020-11-07 23:56:03</t>
-        </is>
+      <c r="H91" s="1" t="n">
+        <v>44142.99725694444</v>
       </c>
       <c r="I91" t="n">
         <v>1</v>
@@ -6941,10 +6777,8 @@
           <t>3681877112</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>2020-11-07 23:53:24</t>
-        </is>
+      <c r="H92" s="1" t="n">
+        <v>44142.99541666666</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
@@ -7012,10 +6846,8 @@
           <t>3681877112</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>2020-11-07 23:51:13</t>
-        </is>
+      <c r="H93" s="1" t="n">
+        <v>44142.99390046296</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
@@ -7083,10 +6915,8 @@
           <t>3683852538</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>2020-11-07 23:47:39</t>
-        </is>
+      <c r="H94" s="1" t="n">
+        <v>44142.99142361111</v>
       </c>
       <c r="I94" t="n">
         <v>1</v>
@@ -7154,10 +6984,8 @@
           <t>3681877112</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>2020-11-07 23:27:04</t>
-        </is>
+      <c r="H95" s="1" t="n">
+        <v>44142.97712962963</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
@@ -7225,10 +7053,8 @@
           <t>3683762122</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>2020-11-07 23:26:40</t>
-        </is>
+      <c r="H96" s="1" t="n">
+        <v>44142.97685185185</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
@@ -7300,10 +7126,8 @@
           <t>3681713144</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>2020-11-07 23:22:29</t>
-        </is>
+      <c r="H97" s="1" t="n">
+        <v>44142.97394675926</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
@@ -7374,10 +7198,8 @@
           <t>3681940475</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>2020-11-07 23:10:37</t>
-        </is>
+      <c r="H98" s="1" t="n">
+        <v>44142.96570601852</v>
       </c>
       <c r="I98" t="n">
         <v>1</v>
@@ -7453,10 +7275,8 @@
           <t>3681940475</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>2020-11-07 23:07:04</t>
-        </is>
+      <c r="H99" s="1" t="n">
+        <v>44142.96324074074</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
@@ -7532,10 +7352,8 @@
           <t>3682282302</t>
         </is>
       </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>2020-11-07 23:05:09</t>
-        </is>
+      <c r="H100" s="1" t="n">
+        <v>44142.96190972222</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
@@ -7612,10 +7430,8 @@
           <t>3681903735</t>
         </is>
       </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>2020-11-07 23:00:47</t>
-        </is>
+      <c r="H101" s="1" t="n">
+        <v>44142.95887731481</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
@@ -7692,10 +7508,8 @@
           <t>3681940475</t>
         </is>
       </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>2020-11-07 22:58:23</t>
-        </is>
+      <c r="H102" s="1" t="n">
+        <v>44142.95721064815</v>
       </c>
       <c r="I102" t="n">
         <v>1</v>
@@ -7771,10 +7585,8 @@
           <t>3683497633</t>
         </is>
       </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>2020-11-07 22:51:30</t>
-        </is>
+      <c r="H103" s="1" t="n">
+        <v>44142.95243055555</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
@@ -7842,10 +7654,8 @@
           <t>3683497633</t>
         </is>
       </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>2020-11-07 22:50:35</t>
-        </is>
+      <c r="H104" s="1" t="n">
+        <v>44142.95179398148</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
@@ -7913,10 +7723,8 @@
           <t>3683497633</t>
         </is>
       </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>2020-11-07 22:49:39</t>
-        </is>
+      <c r="H105" s="1" t="n">
+        <v>44142.95114583334</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
@@ -7984,10 +7792,8 @@
           <t>3683497633</t>
         </is>
       </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>2020-11-07 22:47:44</t>
-        </is>
+      <c r="H106" s="1" t="n">
+        <v>44142.94981481481</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
@@ -8055,10 +7861,8 @@
           <t>3682184642</t>
         </is>
       </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>2020-11-07 22:41:59</t>
-        </is>
+      <c r="H107" s="1" t="n">
+        <v>44142.94582175926</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
@@ -8130,10 +7934,8 @@
           <t>3683497633</t>
         </is>
       </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>2020-11-07 22:41:17</t>
-        </is>
+      <c r="H108" s="1" t="n">
+        <v>44142.94533564815</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
@@ -8201,10 +8003,8 @@
           <t>3683497633</t>
         </is>
       </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>2020-11-07 22:40:12</t>
-        </is>
+      <c r="H109" s="1" t="n">
+        <v>44142.94458333333</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
@@ -8272,10 +8072,8 @@
           <t>3683548746</t>
         </is>
       </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>2020-11-07 22:39:00</t>
-        </is>
+      <c r="H110" s="1" t="n">
+        <v>44142.94375</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
@@ -8343,10 +8141,8 @@
           <t>3683548567</t>
         </is>
       </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>2020-11-07 22:38:53</t>
-        </is>
+      <c r="H111" s="1" t="n">
+        <v>44142.94366898148</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
@@ -8410,10 +8206,8 @@
           <t>3683475960</t>
         </is>
       </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>2020-11-07 22:21:45</t>
-        </is>
+      <c r="H112" s="1" t="n">
+        <v>44142.93177083333</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
@@ -8485,10 +8279,8 @@
           <t>3683457076</t>
         </is>
       </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>2020-11-07 22:18:23</t>
-        </is>
+      <c r="H113" s="1" t="n">
+        <v>44142.92943287037</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
@@ -8561,10 +8353,8 @@
           <t>3682474066</t>
         </is>
       </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>2020-11-07 22:18:19</t>
-        </is>
+      <c r="H114" s="1" t="n">
+        <v>44142.92938657408</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
@@ -8640,10 +8430,8 @@
           <t>3683431412</t>
         </is>
       </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>2020-11-07 22:12:03</t>
-        </is>
+      <c r="H115" s="1" t="n">
+        <v>44142.92503472222</v>
       </c>
       <c r="I115" t="n">
         <v>2</v>
@@ -8715,10 +8503,8 @@
           <t>3683327437</t>
         </is>
       </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>2020-11-07 21:48:55</t>
-        </is>
+      <c r="H116" s="1" t="n">
+        <v>44142.90896990741</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
@@ -8790,10 +8576,8 @@
           <t>3681947736</t>
         </is>
       </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>2020-11-07 21:44:03</t>
-        </is>
+      <c r="H117" s="1" t="n">
+        <v>44142.90559027778</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
@@ -8865,10 +8649,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>2020-11-07 21:38:28</t>
-        </is>
+      <c r="H118" s="1" t="n">
+        <v>44142.90171296296</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
@@ -8936,10 +8718,8 @@
           <t>3681903735</t>
         </is>
       </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>2020-11-07 21:35:14</t>
-        </is>
+      <c r="H119" s="1" t="n">
+        <v>44142.89946759259</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
@@ -9012,10 +8792,8 @@
           <t>3682282302</t>
         </is>
       </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>2020-11-07 21:06:15</t>
-        </is>
+      <c r="H120" s="1" t="n">
+        <v>44142.87934027778</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
@@ -9086,10 +8864,8 @@
           <t>3682110537</t>
         </is>
       </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>2020-11-07 21:05:18</t>
-        </is>
+      <c r="H121" s="1" t="n">
+        <v>44142.87868055556</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
@@ -9153,10 +8929,8 @@
           <t>3682474066</t>
         </is>
       </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>2020-11-07 20:54:37</t>
-        </is>
+      <c r="H122" s="1" t="n">
+        <v>44142.87126157407</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
@@ -9227,10 +9001,8 @@
           <t>3681861208</t>
         </is>
       </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>2020-11-07 20:44:34</t>
-        </is>
+      <c r="H123" s="1" t="n">
+        <v>44142.8642824074</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
@@ -9303,10 +9075,8 @@
           <t>3682474066</t>
         </is>
       </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>2020-11-07 20:34:51</t>
-        </is>
+      <c r="H124" s="1" t="n">
+        <v>44142.85753472222</v>
       </c>
       <c r="I124" t="n">
         <v>5</v>
@@ -9366,10 +9136,8 @@
           <t>3683016832</t>
         </is>
       </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>2020-11-07 20:34:03</t>
-        </is>
+      <c r="H125" s="1" t="n">
+        <v>44142.85697916667</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
@@ -9445,10 +9213,8 @@
           <t>3681903735</t>
         </is>
       </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>2020-11-07 20:30:17</t>
-        </is>
+      <c r="H126" s="1" t="n">
+        <v>44142.85436342593</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
@@ -9521,10 +9287,8 @@
           <t>3682974053</t>
         </is>
       </c>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>2020-11-07 20:24:35</t>
-        </is>
+      <c r="H127" s="1" t="n">
+        <v>44142.85040509259</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
@@ -9592,10 +9356,8 @@
           <t>3681952113</t>
         </is>
       </c>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>2020-11-07 20:17:30</t>
-        </is>
+      <c r="H128" s="1" t="n">
+        <v>44142.84548611111</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
@@ -9667,10 +9429,8 @@
           <t>3682153685</t>
         </is>
       </c>
-      <c r="H129" t="inlineStr">
-        <is>
-          <t>2020-11-07 20:15:36</t>
-        </is>
+      <c r="H129" s="1" t="n">
+        <v>44142.84416666667</v>
       </c>
       <c r="I129" t="n">
         <v>0</v>
@@ -9742,10 +9502,8 @@
           <t>3681952113</t>
         </is>
       </c>
-      <c r="H130" t="inlineStr">
-        <is>
-          <t>2020-11-07 20:13:46</t>
-        </is>
+      <c r="H130" s="1" t="n">
+        <v>44142.84289351852</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
@@ -9821,10 +9579,8 @@
           <t>3681952113</t>
         </is>
       </c>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>2020-11-07 20:08:26</t>
-        </is>
+      <c r="H131" s="1" t="n">
+        <v>44142.83918981482</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
@@ -9896,10 +9652,8 @@
           <t>3681952113</t>
         </is>
       </c>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>2020-11-07 20:06:32</t>
-        </is>
+      <c r="H132" s="1" t="n">
+        <v>44142.83787037037</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
@@ -9975,10 +9729,8 @@
           <t>3682809237</t>
         </is>
       </c>
-      <c r="H133" t="inlineStr">
-        <is>
-          <t>2020-11-07 20:06:11</t>
-        </is>
+      <c r="H133" s="1" t="n">
+        <v>44142.83762731482</v>
       </c>
       <c r="I133" t="n">
         <v>0</v>
@@ -10046,10 +9798,8 @@
           <t>3681952113</t>
         </is>
       </c>
-      <c r="H134" t="inlineStr">
-        <is>
-          <t>2020-11-07 20:04:24</t>
-        </is>
+      <c r="H134" s="1" t="n">
+        <v>44142.83638888889</v>
       </c>
       <c r="I134" t="n">
         <v>0</v>
@@ -10121,10 +9871,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>2020-11-07 20:04:06</t>
-        </is>
+      <c r="H135" s="1" t="n">
+        <v>44142.83618055555</v>
       </c>
       <c r="I135" t="n">
         <v>0</v>
@@ -10200,10 +9948,8 @@
           <t>3682892664</t>
         </is>
       </c>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t>2020-11-07 20:03:27</t>
-        </is>
+      <c r="H136" s="1" t="n">
+        <v>44142.83572916667</v>
       </c>
       <c r="I136" t="n">
         <v>0</v>
@@ -10279,10 +10025,8 @@
           <t>3681952113</t>
         </is>
       </c>
-      <c r="H137" t="inlineStr">
-        <is>
-          <t>2020-11-07 20:03:25</t>
-        </is>
+      <c r="H137" s="1" t="n">
+        <v>44142.83570601852</v>
       </c>
       <c r="I137" t="n">
         <v>1</v>
@@ -10346,10 +10090,8 @@
           <t>3682153685</t>
         </is>
       </c>
-      <c r="H138" t="inlineStr">
-        <is>
-          <t>2020-11-07 19:54:59</t>
-        </is>
+      <c r="H138" s="1" t="n">
+        <v>44142.82984953704</v>
       </c>
       <c r="I138" t="n">
         <v>0</v>
@@ -10425,10 +10167,8 @@
           <t>3681952113</t>
         </is>
       </c>
-      <c r="H139" t="inlineStr">
-        <is>
-          <t>2020-11-07 19:52:43</t>
-        </is>
+      <c r="H139" s="1" t="n">
+        <v>44142.82827546296</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
@@ -10504,10 +10244,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H140" t="inlineStr">
-        <is>
-          <t>2020-11-07 19:52:01</t>
-        </is>
+      <c r="H140" s="1" t="n">
+        <v>44142.82778935185</v>
       </c>
       <c r="I140" t="n">
         <v>0</v>
@@ -10583,10 +10321,8 @@
           <t>3682153685</t>
         </is>
       </c>
-      <c r="H141" t="inlineStr">
-        <is>
-          <t>2020-11-07 19:47:23</t>
-        </is>
+      <c r="H141" s="1" t="n">
+        <v>44142.82457175926</v>
       </c>
       <c r="I141" t="n">
         <v>2</v>
@@ -10658,10 +10394,8 @@
           <t>3682474066</t>
         </is>
       </c>
-      <c r="H142" t="inlineStr">
-        <is>
-          <t>2020-11-07 19:47:01</t>
-        </is>
+      <c r="H142" s="1" t="n">
+        <v>44142.82431712963</v>
       </c>
       <c r="I142" t="n">
         <v>2</v>
@@ -10729,10 +10463,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H143" t="inlineStr">
-        <is>
-          <t>2020-11-07 19:43:22</t>
-        </is>
+      <c r="H143" s="1" t="n">
+        <v>44142.82178240741</v>
       </c>
       <c r="I143" t="n">
         <v>0</v>
@@ -10796,10 +10528,8 @@
           <t>3681952113</t>
         </is>
       </c>
-      <c r="H144" t="inlineStr">
-        <is>
-          <t>2020-11-07 19:43:18</t>
-        </is>
+      <c r="H144" s="1" t="n">
+        <v>44142.82173611111</v>
       </c>
       <c r="I144" t="n">
         <v>0</v>
@@ -10871,10 +10601,8 @@
           <t>3682809237</t>
         </is>
       </c>
-      <c r="H145" t="inlineStr">
-        <is>
-          <t>2020-11-07 19:43:13</t>
-        </is>
+      <c r="H145" s="1" t="n">
+        <v>44142.82167824074</v>
       </c>
       <c r="I145" t="n">
         <v>0</v>
@@ -10942,10 +10670,8 @@
           <t>3681952113</t>
         </is>
       </c>
-      <c r="H146" t="inlineStr">
-        <is>
-          <t>2020-11-07 19:39:00</t>
-        </is>
+      <c r="H146" s="1" t="n">
+        <v>44142.81875</v>
       </c>
       <c r="I146" t="n">
         <v>0</v>
@@ -11021,10 +10747,8 @@
           <t>3681952113</t>
         </is>
       </c>
-      <c r="H147" t="inlineStr">
-        <is>
-          <t>2020-11-07 19:36:11</t>
-        </is>
+      <c r="H147" s="1" t="n">
+        <v>44142.81679398148</v>
       </c>
       <c r="I147" t="n">
         <v>0</v>
@@ -11100,10 +10824,8 @@
           <t>3681952113</t>
         </is>
       </c>
-      <c r="H148" t="inlineStr">
-        <is>
-          <t>2020-11-07 19:33:18</t>
-        </is>
+      <c r="H148" s="1" t="n">
+        <v>44142.81479166666</v>
       </c>
       <c r="I148" t="n">
         <v>0</v>
@@ -11179,10 +10901,8 @@
           <t>3682153685</t>
         </is>
       </c>
-      <c r="H149" t="inlineStr">
-        <is>
-          <t>2020-11-07 19:32:53</t>
-        </is>
+      <c r="H149" s="1" t="n">
+        <v>44142.81450231482</v>
       </c>
       <c r="I149" t="n">
         <v>0</v>
@@ -11258,10 +10978,8 @@
           <t>3681952113</t>
         </is>
       </c>
-      <c r="H150" t="inlineStr">
-        <is>
-          <t>2020-11-07 19:32:19</t>
-        </is>
+      <c r="H150" s="1" t="n">
+        <v>44142.81410879629</v>
       </c>
       <c r="I150" t="n">
         <v>1</v>
@@ -11325,10 +11043,8 @@
           <t>3682716363</t>
         </is>
       </c>
-      <c r="H151" t="inlineStr">
-        <is>
-          <t>2020-11-07 19:29:03</t>
-        </is>
+      <c r="H151" s="1" t="n">
+        <v>44142.81184027778</v>
       </c>
       <c r="I151" t="n">
         <v>0</v>
@@ -11396,10 +11112,8 @@
           <t>3682436766</t>
         </is>
       </c>
-      <c r="H152" t="inlineStr">
-        <is>
-          <t>2020-11-07 19:27:58</t>
-        </is>
+      <c r="H152" s="1" t="n">
+        <v>44142.81108796296</v>
       </c>
       <c r="I152" t="n">
         <v>1</v>
@@ -11467,10 +11181,8 @@
           <t>3681952113</t>
         </is>
       </c>
-      <c r="H153" t="inlineStr">
-        <is>
-          <t>2020-11-07 19:27:32</t>
-        </is>
+      <c r="H153" s="1" t="n">
+        <v>44142.81078703704</v>
       </c>
       <c r="I153" t="n">
         <v>0</v>
@@ -11542,10 +11254,8 @@
           <t>3681947736</t>
         </is>
       </c>
-      <c r="H154" t="inlineStr">
-        <is>
-          <t>2020-11-07 19:27:18</t>
-        </is>
+      <c r="H154" s="1" t="n">
+        <v>44142.810625</v>
       </c>
       <c r="I154" t="n">
         <v>0</v>
@@ -11609,10 +11319,8 @@
           <t>3682745353</t>
         </is>
       </c>
-      <c r="H155" t="inlineStr">
-        <is>
-          <t>2020-11-07 19:25:56</t>
-        </is>
+      <c r="H155" s="1" t="n">
+        <v>44142.80967592593</v>
       </c>
       <c r="I155" t="n">
         <v>0</v>
@@ -11680,10 +11388,8 @@
           <t>3682716363</t>
         </is>
       </c>
-      <c r="H156" t="inlineStr">
-        <is>
-          <t>2020-11-07 19:25:46</t>
-        </is>
+      <c r="H156" s="1" t="n">
+        <v>44142.80956018518</v>
       </c>
       <c r="I156" t="n">
         <v>3</v>
@@ -11743,10 +11449,8 @@
           <t>3682716363</t>
         </is>
       </c>
-      <c r="H157" t="inlineStr">
-        <is>
-          <t>2020-11-07 19:25:23</t>
-        </is>
+      <c r="H157" s="1" t="n">
+        <v>44142.80929398148</v>
       </c>
       <c r="I157" t="n">
         <v>4</v>
@@ -11806,10 +11510,8 @@
           <t>3681947736</t>
         </is>
       </c>
-      <c r="H158" t="inlineStr">
-        <is>
-          <t>2020-11-07 19:23:51</t>
-        </is>
+      <c r="H158" s="1" t="n">
+        <v>44142.80822916667</v>
       </c>
       <c r="I158" t="n">
         <v>1</v>
@@ -11873,10 +11575,8 @@
           <t>3681952113</t>
         </is>
       </c>
-      <c r="H159" t="inlineStr">
-        <is>
-          <t>2020-11-07 19:23:38</t>
-        </is>
+      <c r="H159" s="1" t="n">
+        <v>44142.8080787037</v>
       </c>
       <c r="I159" t="n">
         <v>0</v>
@@ -11948,10 +11648,8 @@
           <t>3682716363</t>
         </is>
       </c>
-      <c r="H160" t="inlineStr">
-        <is>
-          <t>2020-11-07 19:22:39</t>
-        </is>
+      <c r="H160" s="1" t="n">
+        <v>44142.80739583333</v>
       </c>
       <c r="I160" t="n">
         <v>0</v>
@@ -12019,10 +11717,8 @@
           <t>3681947736</t>
         </is>
       </c>
-      <c r="H161" t="inlineStr">
-        <is>
-          <t>2020-11-07 19:22:16</t>
-        </is>
+      <c r="H161" s="1" t="n">
+        <v>44142.80712962963</v>
       </c>
       <c r="I161" t="n">
         <v>0</v>
@@ -12086,10 +11782,8 @@
           <t>3682719902</t>
         </is>
       </c>
-      <c r="H162" t="inlineStr">
-        <is>
-          <t>2020-11-07 19:22:04</t>
-        </is>
+      <c r="H162" s="1" t="n">
+        <v>44142.80699074074</v>
       </c>
       <c r="I162" t="n">
         <v>0</v>
@@ -12153,10 +11847,8 @@
           <t>3681692138</t>
         </is>
       </c>
-      <c r="H163" t="inlineStr">
-        <is>
-          <t>2020-11-07 19:19:56</t>
-        </is>
+      <c r="H163" s="1" t="n">
+        <v>44142.80550925926</v>
       </c>
       <c r="I163" t="n">
         <v>0</v>
@@ -12224,10 +11916,8 @@
           <t>3682716363</t>
         </is>
       </c>
-      <c r="H164" t="inlineStr">
-        <is>
-          <t>2020-11-07 19:19:28</t>
-        </is>
+      <c r="H164" s="1" t="n">
+        <v>44142.80518518519</v>
       </c>
       <c r="I164" t="n">
         <v>1</v>
@@ -12291,10 +11981,8 @@
           <t>3682708087</t>
         </is>
       </c>
-      <c r="H165" t="inlineStr">
-        <is>
-          <t>2020-11-07 19:18:56</t>
-        </is>
+      <c r="H165" s="1" t="n">
+        <v>44142.80481481482</v>
       </c>
       <c r="I165" t="n">
         <v>0</v>
@@ -12370,10 +12058,8 @@
           <t>3681946751</t>
         </is>
       </c>
-      <c r="H166" t="inlineStr">
-        <is>
-          <t>2020-11-07 19:16:42</t>
-        </is>
+      <c r="H166" s="1" t="n">
+        <v>44142.80326388889</v>
       </c>
       <c r="I166" t="n">
         <v>0</v>
@@ -12445,10 +12131,8 @@
           <t>3682697699</t>
         </is>
       </c>
-      <c r="H167" t="inlineStr">
-        <is>
-          <t>2020-11-07 19:15:33</t>
-        </is>
+      <c r="H167" s="1" t="n">
+        <v>44142.80246527777</v>
       </c>
       <c r="I167" t="n">
         <v>1</v>
@@ -12512,10 +12196,8 @@
           <t>3682683494</t>
         </is>
       </c>
-      <c r="H168" t="inlineStr">
-        <is>
-          <t>2020-11-07 19:12:24</t>
-        </is>
+      <c r="H168" s="1" t="n">
+        <v>44142.80027777778</v>
       </c>
       <c r="I168" t="n">
         <v>2</v>
@@ -12579,10 +12261,8 @@
           <t>3682474066</t>
         </is>
       </c>
-      <c r="H169" t="inlineStr">
-        <is>
-          <t>2020-11-07 19:11:47</t>
-        </is>
+      <c r="H169" s="1" t="n">
+        <v>44142.79984953703</v>
       </c>
       <c r="I169" t="n">
         <v>7</v>
@@ -12658,10 +12338,8 @@
           <t>3682474066</t>
         </is>
       </c>
-      <c r="H170" t="inlineStr">
-        <is>
-          <t>2020-11-07 19:09:50</t>
-        </is>
+      <c r="H170" s="1" t="n">
+        <v>44142.79849537037</v>
       </c>
       <c r="I170" t="n">
         <v>7</v>
@@ -12737,10 +12415,8 @@
           <t>3681946751</t>
         </is>
       </c>
-      <c r="H171" t="inlineStr">
-        <is>
-          <t>2020-11-07 19:08:35</t>
-        </is>
+      <c r="H171" s="1" t="n">
+        <v>44142.79762731482</v>
       </c>
       <c r="I171" t="n">
         <v>0</v>
@@ -12812,10 +12488,8 @@
           <t>3682667950</t>
         </is>
       </c>
-      <c r="H172" t="inlineStr">
-        <is>
-          <t>2020-11-07 19:08:28</t>
-        </is>
+      <c r="H172" s="1" t="n">
+        <v>44142.79754629629</v>
       </c>
       <c r="I172" t="n">
         <v>1</v>
@@ -12879,10 +12553,8 @@
           <t>3682474066</t>
         </is>
       </c>
-      <c r="H173" t="inlineStr">
-        <is>
-          <t>2020-11-07 19:08:11</t>
-        </is>
+      <c r="H173" s="1" t="n">
+        <v>44142.79734953704</v>
       </c>
       <c r="I173" t="n">
         <v>0</v>
@@ -12950,10 +12622,8 @@
           <t>3681952113</t>
         </is>
       </c>
-      <c r="H174" t="inlineStr">
-        <is>
-          <t>2020-11-07 19:06:18</t>
-        </is>
+      <c r="H174" s="1" t="n">
+        <v>44142.79604166667</v>
       </c>
       <c r="I174" t="n">
         <v>0</v>
@@ -13029,10 +12699,8 @@
           <t>3682657510</t>
         </is>
       </c>
-      <c r="H175" t="inlineStr">
-        <is>
-          <t>2020-11-07 19:05:53</t>
-        </is>
+      <c r="H175" s="1" t="n">
+        <v>44142.79575231481</v>
       </c>
       <c r="I175" t="n">
         <v>4</v>
@@ -13104,10 +12772,8 @@
           <t>3682128993</t>
         </is>
       </c>
-      <c r="H176" t="inlineStr">
-        <is>
-          <t>2020-11-07 19:04:35</t>
-        </is>
+      <c r="H176" s="1" t="n">
+        <v>44142.79484953704</v>
       </c>
       <c r="I176" t="n">
         <v>1</v>
@@ -13175,10 +12841,8 @@
           <t>3682474066</t>
         </is>
       </c>
-      <c r="H177" t="inlineStr">
-        <is>
-          <t>2020-11-07 19:04:30</t>
-        </is>
+      <c r="H177" s="1" t="n">
+        <v>44142.79479166667</v>
       </c>
       <c r="I177" t="n">
         <v>8</v>
@@ -13254,10 +12918,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H178" t="inlineStr">
-        <is>
-          <t>2020-11-07 19:03:57</t>
-        </is>
+      <c r="H178" s="1" t="n">
+        <v>44142.79440972222</v>
       </c>
       <c r="I178" t="n">
         <v>66</v>
@@ -13329,10 +12991,8 @@
           <t>3681861208</t>
         </is>
       </c>
-      <c r="H179" t="inlineStr">
-        <is>
-          <t>2020-11-07 19:03:42</t>
-        </is>
+      <c r="H179" s="1" t="n">
+        <v>44142.79423611111</v>
       </c>
       <c r="I179" t="n">
         <v>2</v>
@@ -13396,10 +13056,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H180" t="inlineStr">
-        <is>
-          <t>2020-11-07 19:03:28</t>
-        </is>
+      <c r="H180" s="1" t="n">
+        <v>44142.79407407407</v>
       </c>
       <c r="I180" t="n">
         <v>0</v>
@@ -13459,10 +13117,8 @@
           <t>3682650554</t>
         </is>
       </c>
-      <c r="H181" t="inlineStr">
-        <is>
-          <t>2020-11-07 19:03:28</t>
-        </is>
+      <c r="H181" s="1" t="n">
+        <v>44142.79407407407</v>
       </c>
       <c r="I181" t="n">
         <v>1</v>
@@ -13538,10 +13194,8 @@
           <t>3681952113</t>
         </is>
       </c>
-      <c r="H182" t="inlineStr">
-        <is>
-          <t>2020-11-07 19:02:13</t>
-        </is>
+      <c r="H182" s="1" t="n">
+        <v>44142.79320601852</v>
       </c>
       <c r="I182" t="n">
         <v>3</v>
@@ -13613,10 +13267,8 @@
           <t>3682638592</t>
         </is>
       </c>
-      <c r="H183" t="inlineStr">
-        <is>
-          <t>2020-11-07 19:02:08</t>
-        </is>
+      <c r="H183" s="1" t="n">
+        <v>44142.79314814815</v>
       </c>
       <c r="I183" t="n">
         <v>1</v>
@@ -13680,10 +13332,8 @@
           <t>3682474066</t>
         </is>
       </c>
-      <c r="H184" t="inlineStr">
-        <is>
-          <t>2020-11-07 19:01:44</t>
-        </is>
+      <c r="H184" s="1" t="n">
+        <v>44142.79287037037</v>
       </c>
       <c r="I184" t="n">
         <v>0</v>
@@ -13751,10 +13401,8 @@
           <t>3682120864</t>
         </is>
       </c>
-      <c r="H185" t="inlineStr">
-        <is>
-          <t>2020-11-07 19:01:11</t>
-        </is>
+      <c r="H185" s="1" t="n">
+        <v>44142.79248842593</v>
       </c>
       <c r="I185" t="n">
         <v>3</v>
@@ -13830,10 +13478,8 @@
           <t>3681952113</t>
         </is>
       </c>
-      <c r="H186" t="inlineStr">
-        <is>
-          <t>2020-11-07 18:59:45</t>
-        </is>
+      <c r="H186" s="1" t="n">
+        <v>44142.79149305556</v>
       </c>
       <c r="I186" t="n">
         <v>0</v>
@@ -13909,10 +13555,8 @@
           <t>3682120864</t>
         </is>
       </c>
-      <c r="H187" t="inlineStr">
-        <is>
-          <t>2020-11-07 18:56:39</t>
-        </is>
+      <c r="H187" s="1" t="n">
+        <v>44142.78934027778</v>
       </c>
       <c r="I187" t="n">
         <v>1</v>
@@ -13988,10 +13632,8 @@
           <t>3682474066</t>
         </is>
       </c>
-      <c r="H188" t="inlineStr">
-        <is>
-          <t>2020-11-07 18:56:08</t>
-        </is>
+      <c r="H188" s="1" t="n">
+        <v>44142.78898148148</v>
       </c>
       <c r="I188" t="n">
         <v>7</v>
@@ -14067,10 +13709,8 @@
           <t>3681861208</t>
         </is>
       </c>
-      <c r="H189" t="inlineStr">
-        <is>
-          <t>2020-11-07 18:55:16</t>
-        </is>
+      <c r="H189" s="1" t="n">
+        <v>44142.78837962963</v>
       </c>
       <c r="I189" t="n">
         <v>1</v>
@@ -14138,10 +13778,8 @@
           <t>3682110537</t>
         </is>
       </c>
-      <c r="H190" t="inlineStr">
-        <is>
-          <t>2020-11-07 18:55:11</t>
-        </is>
+      <c r="H190" s="1" t="n">
+        <v>44142.78832175926</v>
       </c>
       <c r="I190" t="n">
         <v>0</v>
@@ -14217,10 +13855,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H191" t="inlineStr">
-        <is>
-          <t>2020-11-07 18:55:00</t>
-        </is>
+      <c r="H191" s="1" t="n">
+        <v>44142.78819444445</v>
       </c>
       <c r="I191" t="n">
         <v>0</v>
@@ -14296,10 +13932,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H192" t="inlineStr">
-        <is>
-          <t>2020-11-07 18:54:30</t>
-        </is>
+      <c r="H192" s="1" t="n">
+        <v>44142.78784722222</v>
       </c>
       <c r="I192" t="n">
         <v>1</v>
@@ -14367,10 +14001,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H193" t="inlineStr">
-        <is>
-          <t>2020-11-07 18:53:26</t>
-        </is>
+      <c r="H193" s="1" t="n">
+        <v>44142.78710648148</v>
       </c>
       <c r="I193" t="n">
         <v>11</v>
@@ -14434,10 +14066,8 @@
           <t>3682474066</t>
         </is>
       </c>
-      <c r="H194" t="inlineStr">
-        <is>
-          <t>2020-11-07 18:53:14</t>
-        </is>
+      <c r="H194" s="1" t="n">
+        <v>44142.78696759259</v>
       </c>
       <c r="I194" t="n">
         <v>0</v>
@@ -14514,10 +14144,8 @@
           <t>3682513739</t>
         </is>
       </c>
-      <c r="H195" t="inlineStr">
-        <is>
-          <t>2020-11-07 18:52:43</t>
-        </is>
+      <c r="H195" s="1" t="n">
+        <v>44142.7866087963</v>
       </c>
       <c r="I195" t="n">
         <v>0</v>
@@ -14581,10 +14209,8 @@
           <t>3682474066</t>
         </is>
       </c>
-      <c r="H196" t="inlineStr">
-        <is>
-          <t>2020-11-07 18:52:04</t>
-        </is>
+      <c r="H196" s="1" t="n">
+        <v>44142.7861574074</v>
       </c>
       <c r="I196" t="n">
         <v>0</v>
@@ -14652,10 +14278,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H197" t="inlineStr">
-        <is>
-          <t>2020-11-07 18:51:37</t>
-        </is>
+      <c r="H197" s="1" t="n">
+        <v>44142.7858449074</v>
       </c>
       <c r="I197" t="n">
         <v>0</v>
@@ -14723,10 +14347,8 @@
           <t>3682474066</t>
         </is>
       </c>
-      <c r="H198" t="inlineStr">
-        <is>
-          <t>2020-11-07 18:51:12</t>
-        </is>
+      <c r="H198" s="1" t="n">
+        <v>44142.78555555556</v>
       </c>
       <c r="I198" t="n">
         <v>8</v>
@@ -14802,10 +14424,8 @@
           <t>3681952113</t>
         </is>
       </c>
-      <c r="H199" t="inlineStr">
-        <is>
-          <t>2020-11-07 18:51:06</t>
-        </is>
+      <c r="H199" s="1" t="n">
+        <v>44142.78548611111</v>
       </c>
       <c r="I199" t="n">
         <v>0</v>
@@ -14869,10 +14489,8 @@
           <t>3682474066</t>
         </is>
       </c>
-      <c r="H200" t="inlineStr">
-        <is>
-          <t>2020-11-07 18:51:02</t>
-        </is>
+      <c r="H200" s="1" t="n">
+        <v>44142.78543981481</v>
       </c>
       <c r="I200" t="n">
         <v>0</v>
@@ -14940,10 +14558,8 @@
           <t>3682474066</t>
         </is>
       </c>
-      <c r="H201" t="inlineStr">
-        <is>
-          <t>2020-11-07 18:50:25</t>
-        </is>
+      <c r="H201" s="1" t="n">
+        <v>44142.78501157407</v>
       </c>
       <c r="I201" t="n">
         <v>0</v>
@@ -15020,10 +14636,8 @@
           <t>3681946751</t>
         </is>
       </c>
-      <c r="H202" t="inlineStr">
-        <is>
-          <t>2020-11-07 18:49:50</t>
-        </is>
+      <c r="H202" s="1" t="n">
+        <v>44142.78460648148</v>
       </c>
       <c r="I202" t="n">
         <v>0</v>
@@ -15099,10 +14713,8 @@
           <t>3682153685</t>
         </is>
       </c>
-      <c r="H203" t="inlineStr">
-        <is>
-          <t>2020-11-07 18:49:43</t>
-        </is>
+      <c r="H203" s="1" t="n">
+        <v>44142.78452546296</v>
       </c>
       <c r="I203" t="n">
         <v>1</v>
@@ -15174,10 +14786,8 @@
           <t>3682513739</t>
         </is>
       </c>
-      <c r="H204" t="inlineStr">
-        <is>
-          <t>2020-11-07 18:49:34</t>
-        </is>
+      <c r="H204" s="1" t="n">
+        <v>44142.7844212963</v>
       </c>
       <c r="I204" t="n">
         <v>0</v>
@@ -15253,10 +14863,8 @@
           <t>3681861208</t>
         </is>
       </c>
-      <c r="H205" t="inlineStr">
-        <is>
-          <t>2020-11-07 18:49:10</t>
-        </is>
+      <c r="H205" s="1" t="n">
+        <v>44142.78414351852</v>
       </c>
       <c r="I205" t="n">
         <v>1</v>
@@ -15332,10 +14940,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H206" t="inlineStr">
-        <is>
-          <t>2020-11-07 18:45:36</t>
-        </is>
+      <c r="H206" s="1" t="n">
+        <v>44142.78166666667</v>
       </c>
       <c r="I206" t="n">
         <v>1</v>
@@ -15403,10 +15009,8 @@
           <t>3681946751</t>
         </is>
       </c>
-      <c r="H207" t="inlineStr">
-        <is>
-          <t>2020-11-07 18:45:09</t>
-        </is>
+      <c r="H207" s="1" t="n">
+        <v>44142.78135416667</v>
       </c>
       <c r="I207" t="n">
         <v>0</v>
@@ -15478,10 +15082,8 @@
           <t>3682120864</t>
         </is>
       </c>
-      <c r="H208" t="inlineStr">
-        <is>
-          <t>2020-11-07 18:43:19</t>
-        </is>
+      <c r="H208" s="1" t="n">
+        <v>44142.78008101852</v>
       </c>
       <c r="I208" t="n">
         <v>9</v>
@@ -15557,10 +15159,8 @@
           <t>3681952113</t>
         </is>
       </c>
-      <c r="H209" t="inlineStr">
-        <is>
-          <t>2020-11-07 18:42:58</t>
-        </is>
+      <c r="H209" s="1" t="n">
+        <v>44142.77983796296</v>
       </c>
       <c r="I209" t="n">
         <v>0</v>
@@ -15636,10 +15236,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H210" t="inlineStr">
-        <is>
-          <t>2020-11-07 18:41:37</t>
-        </is>
+      <c r="H210" s="1" t="n">
+        <v>44142.77890046296</v>
       </c>
       <c r="I210" t="n">
         <v>0</v>
@@ -15707,10 +15305,8 @@
           <t>3682513739</t>
         </is>
       </c>
-      <c r="H211" t="inlineStr">
-        <is>
-          <t>2020-11-07 18:40:43</t>
-        </is>
+      <c r="H211" s="1" t="n">
+        <v>44142.77827546297</v>
       </c>
       <c r="I211" t="n">
         <v>4</v>
@@ -15786,10 +15382,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H212" t="inlineStr">
-        <is>
-          <t>2020-11-07 18:37:49</t>
-        </is>
+      <c r="H212" s="1" t="n">
+        <v>44142.77626157407</v>
       </c>
       <c r="I212" t="n">
         <v>0</v>
@@ -15857,10 +15451,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H213" t="inlineStr">
-        <is>
-          <t>2020-11-07 18:37:10</t>
-        </is>
+      <c r="H213" s="1" t="n">
+        <v>44142.77581018519</v>
       </c>
       <c r="I213" t="n">
         <v>0</v>
@@ -15928,10 +15520,8 @@
           <t>3682530034</t>
         </is>
       </c>
-      <c r="H214" t="inlineStr">
-        <is>
-          <t>2020-11-07 18:34:58</t>
-        </is>
+      <c r="H214" s="1" t="n">
+        <v>44142.77428240741</v>
       </c>
       <c r="I214" t="n">
         <v>0</v>
@@ -15999,10 +15589,8 @@
           <t>3682513739</t>
         </is>
       </c>
-      <c r="H215" t="inlineStr">
-        <is>
-          <t>2020-11-07 18:33:08</t>
-        </is>
+      <c r="H215" s="1" t="n">
+        <v>44142.77300925926</v>
       </c>
       <c r="I215" t="n">
         <v>7</v>
@@ -16068,10 +15656,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H216" t="inlineStr">
-        <is>
-          <t>2020-11-07 18:31:35</t>
-        </is>
+      <c r="H216" s="1" t="n">
+        <v>44142.77193287037</v>
       </c>
       <c r="I216" t="n">
         <v>1</v>
@@ -16143,10 +15729,8 @@
           <t>3681698792</t>
         </is>
       </c>
-      <c r="H217" t="inlineStr">
-        <is>
-          <t>2020-11-07 18:30:00</t>
-        </is>
+      <c r="H217" s="1" t="n">
+        <v>44142.77083333334</v>
       </c>
       <c r="I217" t="n">
         <v>0</v>
@@ -16214,10 +15798,8 @@
           <t>3681952113</t>
         </is>
       </c>
-      <c r="H218" t="inlineStr">
-        <is>
-          <t>2020-11-07 18:29:52</t>
-        </is>
+      <c r="H218" s="1" t="n">
+        <v>44142.77074074074</v>
       </c>
       <c r="I218" t="n">
         <v>6</v>
@@ -16281,10 +15863,8 @@
           <t>3682496998</t>
         </is>
       </c>
-      <c r="H219" t="inlineStr">
-        <is>
-          <t>2020-11-07 18:28:14</t>
-        </is>
+      <c r="H219" s="1" t="n">
+        <v>44142.76960648148</v>
       </c>
       <c r="I219" t="n">
         <v>0</v>
@@ -16361,10 +15941,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H220" t="inlineStr">
-        <is>
-          <t>2020-11-07 18:25:48</t>
-        </is>
+      <c r="H220" s="1" t="n">
+        <v>44142.76791666666</v>
       </c>
       <c r="I220" t="n">
         <v>2</v>
@@ -16440,10 +16018,8 @@
           <t>3681946751</t>
         </is>
       </c>
-      <c r="H221" t="inlineStr">
-        <is>
-          <t>2020-11-07 18:23:52</t>
-        </is>
+      <c r="H221" s="1" t="n">
+        <v>44142.76657407408</v>
       </c>
       <c r="I221" t="n">
         <v>1</v>
@@ -16511,10 +16087,8 @@
           <t>3682474066</t>
         </is>
       </c>
-      <c r="H222" t="inlineStr">
-        <is>
-          <t>2020-11-07 18:23:33</t>
-        </is>
+      <c r="H222" s="1" t="n">
+        <v>44142.76635416667</v>
       </c>
       <c r="I222" t="n">
         <v>16</v>
@@ -16590,10 +16164,8 @@
           <t>3682473467</t>
         </is>
       </c>
-      <c r="H223" t="inlineStr">
-        <is>
-          <t>2020-11-07 18:23:05</t>
-        </is>
+      <c r="H223" s="1" t="n">
+        <v>44142.76603009259</v>
       </c>
       <c r="I223" t="n">
         <v>0</v>
@@ -16665,10 +16237,8 @@
           <t>3681946751</t>
         </is>
       </c>
-      <c r="H224" t="inlineStr">
-        <is>
-          <t>2020-11-07 18:22:21</t>
-        </is>
+      <c r="H224" s="1" t="n">
+        <v>44142.76552083333</v>
       </c>
       <c r="I224" t="n">
         <v>1</v>
@@ -16736,10 +16306,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H225" t="inlineStr">
-        <is>
-          <t>2020-11-07 18:21:45</t>
-        </is>
+      <c r="H225" s="1" t="n">
+        <v>44142.76510416667</v>
       </c>
       <c r="I225" t="n">
         <v>1</v>
@@ -16803,10 +16371,8 @@
           <t>3682476314</t>
         </is>
       </c>
-      <c r="H226" t="inlineStr">
-        <is>
-          <t>2020-11-07 18:21:44</t>
-        </is>
+      <c r="H226" s="1" t="n">
+        <v>44142.76509259259</v>
       </c>
       <c r="I226" t="n">
         <v>1</v>
@@ -16879,10 +16445,8 @@
           <t>3682126755</t>
         </is>
       </c>
-      <c r="H227" t="inlineStr">
-        <is>
-          <t>2020-11-07 18:20:17</t>
-        </is>
+      <c r="H227" s="1" t="n">
+        <v>44142.76408564814</v>
       </c>
       <c r="I227" t="n">
         <v>0</v>
@@ -16958,10 +16522,8 @@
           <t>3682412466</t>
         </is>
       </c>
-      <c r="H228" t="inlineStr">
-        <is>
-          <t>2020-11-07 18:14:28</t>
-        </is>
+      <c r="H228" s="1" t="n">
+        <v>44142.76004629629</v>
       </c>
       <c r="I228" t="n">
         <v>1</v>
@@ -17029,10 +16591,8 @@
           <t>3682417676</t>
         </is>
       </c>
-      <c r="H229" t="inlineStr">
-        <is>
-          <t>2020-11-07 18:13:32</t>
-        </is>
+      <c r="H229" s="1" t="n">
+        <v>44142.75939814815</v>
       </c>
       <c r="I229" t="n">
         <v>0</v>
@@ -17100,10 +16660,8 @@
           <t>3682436766</t>
         </is>
       </c>
-      <c r="H230" t="inlineStr">
-        <is>
-          <t>2020-11-07 18:13:21</t>
-        </is>
+      <c r="H230" s="1" t="n">
+        <v>44142.75927083333</v>
       </c>
       <c r="I230" t="n">
         <v>1</v>
@@ -17167,10 +16725,8 @@
           <t>3681877112</t>
         </is>
       </c>
-      <c r="H231" t="inlineStr">
-        <is>
-          <t>2020-11-07 18:13:19</t>
-        </is>
+      <c r="H231" s="1" t="n">
+        <v>44142.75924768519</v>
       </c>
       <c r="I231" t="n">
         <v>0</v>
@@ -17238,10 +16794,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H232" t="inlineStr">
-        <is>
-          <t>2020-11-07 18:13:09</t>
-        </is>
+      <c r="H232" s="1" t="n">
+        <v>44142.75913194445</v>
       </c>
       <c r="I232" t="n">
         <v>0</v>
@@ -17305,10 +16859,8 @@
           <t>3682417676</t>
         </is>
       </c>
-      <c r="H233" t="inlineStr">
-        <is>
-          <t>2020-11-07 18:08:18</t>
-        </is>
+      <c r="H233" s="1" t="n">
+        <v>44142.75576388889</v>
       </c>
       <c r="I233" t="n">
         <v>0</v>
@@ -17384,10 +16936,8 @@
           <t>3681946751</t>
         </is>
       </c>
-      <c r="H234" t="inlineStr">
-        <is>
-          <t>2020-11-07 18:07:58</t>
-        </is>
+      <c r="H234" s="1" t="n">
+        <v>44142.75553240741</v>
       </c>
       <c r="I234" t="n">
         <v>0</v>
@@ -17463,10 +17013,8 @@
           <t>3682409445</t>
         </is>
       </c>
-      <c r="H235" t="inlineStr">
-        <is>
-          <t>2020-11-07 18:07:48</t>
-        </is>
+      <c r="H235" s="1" t="n">
+        <v>44142.75541666667</v>
       </c>
       <c r="I235" t="n">
         <v>1</v>
@@ -17526,10 +17074,8 @@
           <t>3682412466</t>
         </is>
       </c>
-      <c r="H236" t="inlineStr">
-        <is>
-          <t>2020-11-07 18:07:21</t>
-        </is>
+      <c r="H236" s="1" t="n">
+        <v>44142.75510416667</v>
       </c>
       <c r="I236" t="n">
         <v>3</v>
@@ -17593,10 +17139,8 @@
           <t>3681906399</t>
         </is>
       </c>
-      <c r="H237" t="inlineStr">
-        <is>
-          <t>2020-11-07 18:06:58</t>
-        </is>
+      <c r="H237" s="1" t="n">
+        <v>44142.75483796297</v>
       </c>
       <c r="I237" t="n">
         <v>0</v>
@@ -17660,10 +17204,8 @@
           <t>3682110537</t>
         </is>
       </c>
-      <c r="H238" t="inlineStr">
-        <is>
-          <t>2020-11-07 18:06:02</t>
-        </is>
+      <c r="H238" s="1" t="n">
+        <v>44142.75418981481</v>
       </c>
       <c r="I238" t="n">
         <v>2</v>
@@ -17727,10 +17269,8 @@
           <t>3681877112</t>
         </is>
       </c>
-      <c r="H239" t="inlineStr">
-        <is>
-          <t>2020-11-07 18:02:43</t>
-        </is>
+      <c r="H239" s="1" t="n">
+        <v>44142.75188657407</v>
       </c>
       <c r="I239" t="n">
         <v>0</v>
@@ -17806,10 +17346,8 @@
           <t>3681946751</t>
         </is>
       </c>
-      <c r="H240" t="inlineStr">
-        <is>
-          <t>2020-11-07 18:01:44</t>
-        </is>
+      <c r="H240" s="1" t="n">
+        <v>44142.7512037037</v>
       </c>
       <c r="I240" t="n">
         <v>0</v>
@@ -17877,10 +17415,8 @@
           <t>3682358785</t>
         </is>
       </c>
-      <c r="H241" t="inlineStr">
-        <is>
-          <t>2020-11-07 17:54:40</t>
-        </is>
+      <c r="H241" s="1" t="n">
+        <v>44142.7462962963</v>
       </c>
       <c r="I241" t="n">
         <v>0</v>
@@ -17956,10 +17492,8 @@
           <t>3682112330</t>
         </is>
       </c>
-      <c r="H242" t="inlineStr">
-        <is>
-          <t>2020-11-07 17:54:36</t>
-        </is>
+      <c r="H242" s="1" t="n">
+        <v>44142.74625</v>
       </c>
       <c r="I242" t="n">
         <v>0</v>
@@ -18031,10 +17565,8 @@
           <t>3682350907</t>
         </is>
       </c>
-      <c r="H243" t="inlineStr">
-        <is>
-          <t>2020-11-07 17:51:02</t>
-        </is>
+      <c r="H243" s="1" t="n">
+        <v>44142.74377314815</v>
       </c>
       <c r="I243" t="n">
         <v>0</v>
@@ -18110,10 +17642,8 @@
           <t>3682341509</t>
         </is>
       </c>
-      <c r="H244" t="inlineStr">
-        <is>
-          <t>2020-11-07 17:50:44</t>
-        </is>
+      <c r="H244" s="1" t="n">
+        <v>44142.74356481482</v>
       </c>
       <c r="I244" t="n">
         <v>1</v>
@@ -18181,10 +17711,8 @@
           <t>3681948719</t>
         </is>
       </c>
-      <c r="H245" t="inlineStr">
-        <is>
-          <t>2020-11-07 17:49:31</t>
-        </is>
+      <c r="H245" s="1" t="n">
+        <v>44142.74271990741</v>
       </c>
       <c r="I245" t="n">
         <v>1</v>
@@ -18248,10 +17776,8 @@
           <t>3681946751</t>
         </is>
       </c>
-      <c r="H246" t="inlineStr">
-        <is>
-          <t>2020-11-07 17:49:19</t>
-        </is>
+      <c r="H246" s="1" t="n">
+        <v>44142.74258101852</v>
       </c>
       <c r="I246" t="n">
         <v>0</v>
@@ -18327,10 +17853,8 @@
           <t>3682341509</t>
         </is>
       </c>
-      <c r="H247" t="inlineStr">
-        <is>
-          <t>2020-11-07 17:48:59</t>
-        </is>
+      <c r="H247" s="1" t="n">
+        <v>44142.74234953704</v>
       </c>
       <c r="I247" t="n">
         <v>1</v>
@@ -18406,10 +17930,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H248" t="inlineStr">
-        <is>
-          <t>2020-11-07 17:48:44</t>
-        </is>
+      <c r="H248" s="1" t="n">
+        <v>44142.74217592592</v>
       </c>
       <c r="I248" t="n">
         <v>0</v>
@@ -18469,10 +17991,8 @@
           <t>3681946751</t>
         </is>
       </c>
-      <c r="H249" t="inlineStr">
-        <is>
-          <t>2020-11-07 17:47:32</t>
-        </is>
+      <c r="H249" s="1" t="n">
+        <v>44142.74134259259</v>
       </c>
       <c r="I249" t="n">
         <v>0</v>
@@ -18548,10 +18068,8 @@
           <t>3681877112</t>
         </is>
       </c>
-      <c r="H250" t="inlineStr">
-        <is>
-          <t>2020-11-07 17:47:25</t>
-        </is>
+      <c r="H250" s="1" t="n">
+        <v>44142.74126157408</v>
       </c>
       <c r="I250" t="n">
         <v>0</v>
@@ -18619,10 +18137,8 @@
           <t>3681946751</t>
         </is>
       </c>
-      <c r="H251" t="inlineStr">
-        <is>
-          <t>2020-11-07 17:46:51</t>
-        </is>
+      <c r="H251" s="1" t="n">
+        <v>44142.74086805555</v>
       </c>
       <c r="I251" t="n">
         <v>0</v>
@@ -18699,10 +18215,8 @@
           <t>3682324601</t>
         </is>
       </c>
-      <c r="H252" t="inlineStr">
-        <is>
-          <t>2020-11-07 17:45:48</t>
-        </is>
+      <c r="H252" s="1" t="n">
+        <v>44142.74013888889</v>
       </c>
       <c r="I252" t="n">
         <v>4</v>
@@ -18770,10 +18284,8 @@
           <t>3681946751</t>
         </is>
       </c>
-      <c r="H253" t="inlineStr">
-        <is>
-          <t>2020-11-07 17:45:10</t>
-        </is>
+      <c r="H253" s="1" t="n">
+        <v>44142.73969907407</v>
       </c>
       <c r="I253" t="n">
         <v>0</v>
@@ -18849,10 +18361,8 @@
           <t>3681946751</t>
         </is>
       </c>
-      <c r="H254" t="inlineStr">
-        <is>
-          <t>2020-11-07 17:40:47</t>
-        </is>
+      <c r="H254" s="1" t="n">
+        <v>44142.73665509259</v>
       </c>
       <c r="I254" t="n">
         <v>0</v>
@@ -18921,10 +18431,8 @@
           <t>3682149871</t>
         </is>
       </c>
-      <c r="H255" t="inlineStr">
-        <is>
-          <t>2020-11-07 17:38:32</t>
-        </is>
+      <c r="H255" s="1" t="n">
+        <v>44142.73509259259</v>
       </c>
       <c r="I255" t="n">
         <v>0</v>
@@ -19000,10 +18508,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H256" t="inlineStr">
-        <is>
-          <t>2020-11-07 17:38:02</t>
-        </is>
+      <c r="H256" s="1" t="n">
+        <v>44142.73474537037</v>
       </c>
       <c r="I256" t="n">
         <v>0</v>
@@ -19075,10 +18581,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H257" t="inlineStr">
-        <is>
-          <t>2020-11-07 17:37:59</t>
-        </is>
+      <c r="H257" s="1" t="n">
+        <v>44142.73471064815</v>
       </c>
       <c r="I257" t="n">
         <v>0</v>
@@ -19146,10 +18650,8 @@
           <t>3681946751</t>
         </is>
       </c>
-      <c r="H258" t="inlineStr">
-        <is>
-          <t>2020-11-07 17:35:49</t>
-        </is>
+      <c r="H258" s="1" t="n">
+        <v>44142.73320601852</v>
       </c>
       <c r="I258" t="n">
         <v>0</v>
@@ -19213,10 +18715,8 @@
           <t>3682287986</t>
         </is>
       </c>
-      <c r="H259" t="inlineStr">
-        <is>
-          <t>2020-11-07 17:35:00</t>
-        </is>
+      <c r="H259" s="1" t="n">
+        <v>44142.73263888889</v>
       </c>
       <c r="I259" t="n">
         <v>2</v>
@@ -19280,10 +18780,8 @@
           <t>3681946751</t>
         </is>
       </c>
-      <c r="H260" t="inlineStr">
-        <is>
-          <t>2020-11-07 17:34:26</t>
-        </is>
+      <c r="H260" s="1" t="n">
+        <v>44142.73224537037</v>
       </c>
       <c r="I260" t="n">
         <v>0</v>
@@ -19353,10 +18851,8 @@
           <t>3682282302</t>
         </is>
       </c>
-      <c r="H261" t="inlineStr">
-        <is>
-          <t>2020-11-07 17:33:18</t>
-        </is>
+      <c r="H261" s="1" t="n">
+        <v>44142.73145833334</v>
       </c>
       <c r="I261" t="n">
         <v>5</v>
@@ -19432,10 +18928,8 @@
           <t>3682272669</t>
         </is>
       </c>
-      <c r="H262" t="inlineStr">
-        <is>
-          <t>2020-11-07 17:30:31</t>
-        </is>
+      <c r="H262" s="1" t="n">
+        <v>44142.72952546296</v>
       </c>
       <c r="I262" t="n">
         <v>3</v>
@@ -19513,10 +19007,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H263" t="inlineStr">
-        <is>
-          <t>2020-11-07 17:23:21</t>
-        </is>
+      <c r="H263" s="1" t="n">
+        <v>44142.72454861111</v>
       </c>
       <c r="I263" t="n">
         <v>0</v>
@@ -19580,10 +19072,8 @@
           <t>3682034951</t>
         </is>
       </c>
-      <c r="H264" t="inlineStr">
-        <is>
-          <t>2020-11-07 17:23:18</t>
-        </is>
+      <c r="H264" s="1" t="n">
+        <v>44142.72451388889</v>
       </c>
       <c r="I264" t="n">
         <v>0</v>
@@ -19651,10 +19141,8 @@
           <t>3681946751</t>
         </is>
       </c>
-      <c r="H265" t="inlineStr">
-        <is>
-          <t>2020-11-07 17:23:07</t>
-        </is>
+      <c r="H265" s="1" t="n">
+        <v>44142.72438657407</v>
       </c>
       <c r="I265" t="n">
         <v>0</v>
@@ -19730,10 +19218,8 @@
           <t>3681948719</t>
         </is>
       </c>
-      <c r="H266" t="inlineStr">
-        <is>
-          <t>2020-11-07 17:18:07</t>
-        </is>
+      <c r="H266" s="1" t="n">
+        <v>44142.72091435185</v>
       </c>
       <c r="I266" t="n">
         <v>1</v>
@@ -19801,10 +19287,8 @@
           <t>3681946751</t>
         </is>
       </c>
-      <c r="H267" t="inlineStr">
-        <is>
-          <t>2020-11-07 17:16:46</t>
-        </is>
+      <c r="H267" s="1" t="n">
+        <v>44142.71997685185</v>
       </c>
       <c r="I267" t="n">
         <v>0</v>
@@ -19880,10 +19364,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H268" t="inlineStr">
-        <is>
-          <t>2020-11-07 17:14:53</t>
-        </is>
+      <c r="H268" s="1" t="n">
+        <v>44142.71866898148</v>
       </c>
       <c r="I268" t="n">
         <v>0</v>
@@ -19959,10 +19441,8 @@
           <t>3681861208</t>
         </is>
       </c>
-      <c r="H269" t="inlineStr">
-        <is>
-          <t>2020-11-07 17:14:17</t>
-        </is>
+      <c r="H269" s="1" t="n">
+        <v>44142.71825231481</v>
       </c>
       <c r="I269" t="n">
         <v>3</v>
@@ -20030,10 +19510,8 @@
           <t>3681877112</t>
         </is>
       </c>
-      <c r="H270" t="inlineStr">
-        <is>
-          <t>2020-11-07 17:12:52</t>
-        </is>
+      <c r="H270" s="1" t="n">
+        <v>44142.71726851852</v>
       </c>
       <c r="I270" t="n">
         <v>7</v>
@@ -20101,10 +19579,8 @@
           <t>3682207111</t>
         </is>
       </c>
-      <c r="H271" t="inlineStr">
-        <is>
-          <t>2020-11-07 17:11:53</t>
-        </is>
+      <c r="H271" s="1" t="n">
+        <v>44142.71658564815</v>
       </c>
       <c r="I271" t="n">
         <v>1</v>
@@ -20172,10 +19648,8 @@
           <t>3682112330</t>
         </is>
       </c>
-      <c r="H272" t="inlineStr">
-        <is>
-          <t>2020-11-07 17:11:38</t>
-        </is>
+      <c r="H272" s="1" t="n">
+        <v>44142.71641203704</v>
       </c>
       <c r="I272" t="n">
         <v>0</v>
@@ -20251,10 +19725,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H273" t="inlineStr">
-        <is>
-          <t>2020-11-07 17:10:54</t>
-        </is>
+      <c r="H273" s="1" t="n">
+        <v>44142.71590277777</v>
       </c>
       <c r="I273" t="n">
         <v>0</v>
@@ -20318,10 +19790,8 @@
           <t>3681861208</t>
         </is>
       </c>
-      <c r="H274" t="inlineStr">
-        <is>
-          <t>2020-11-07 17:10:08</t>
-        </is>
+      <c r="H274" s="1" t="n">
+        <v>44142.71537037037</v>
       </c>
       <c r="I274" t="n">
         <v>2</v>
@@ -20389,10 +19859,8 @@
           <t>3681946751</t>
         </is>
       </c>
-      <c r="H275" t="inlineStr">
-        <is>
-          <t>2020-11-07 17:09:28</t>
-        </is>
+      <c r="H275" s="1" t="n">
+        <v>44142.7149074074</v>
       </c>
       <c r="I275" t="n">
         <v>1</v>
@@ -20460,10 +19928,8 @@
           <t>3681869361</t>
         </is>
       </c>
-      <c r="H276" t="inlineStr">
-        <is>
-          <t>2020-11-07 17:09:13</t>
-        </is>
+      <c r="H276" s="1" t="n">
+        <v>44142.7147337963</v>
       </c>
       <c r="I276" t="n">
         <v>3</v>
@@ -20531,10 +19997,8 @@
           <t>3681869361</t>
         </is>
       </c>
-      <c r="H277" t="inlineStr">
-        <is>
-          <t>2020-11-07 17:08:38</t>
-        </is>
+      <c r="H277" s="1" t="n">
+        <v>44142.7143287037</v>
       </c>
       <c r="I277" t="n">
         <v>0</v>
@@ -20606,10 +20070,8 @@
           <t>3682200478</t>
         </is>
       </c>
-      <c r="H278" t="inlineStr">
-        <is>
-          <t>2020-11-07 17:08:15</t>
-        </is>
+      <c r="H278" s="1" t="n">
+        <v>44142.7140625</v>
       </c>
       <c r="I278" t="n">
         <v>2</v>
@@ -20677,10 +20139,8 @@
           <t>3681861208</t>
         </is>
       </c>
-      <c r="H279" t="inlineStr">
-        <is>
-          <t>2020-11-07 17:07:24</t>
-        </is>
+      <c r="H279" s="1" t="n">
+        <v>44142.71347222223</v>
       </c>
       <c r="I279" t="n">
         <v>0</v>
@@ -20748,10 +20208,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H280" t="inlineStr">
-        <is>
-          <t>2020-11-07 17:06:59</t>
-        </is>
+      <c r="H280" s="1" t="n">
+        <v>44142.71318287037</v>
       </c>
       <c r="I280" t="n">
         <v>0</v>
@@ -20819,10 +20277,8 @@
           <t>3682188929</t>
         </is>
       </c>
-      <c r="H281" t="inlineStr">
-        <is>
-          <t>2020-11-07 17:06:55</t>
-        </is>
+      <c r="H281" s="1" t="n">
+        <v>44142.71313657407</v>
       </c>
       <c r="I281" t="n">
         <v>0</v>
@@ -20894,10 +20350,8 @@
           <t>3682149871</t>
         </is>
       </c>
-      <c r="H282" t="inlineStr">
-        <is>
-          <t>2020-11-07 17:06:36</t>
-        </is>
+      <c r="H282" s="1" t="n">
+        <v>44142.71291666666</v>
       </c>
       <c r="I282" t="n">
         <v>1</v>
@@ -20965,10 +20419,8 @@
           <t>3682110537</t>
         </is>
       </c>
-      <c r="H283" t="inlineStr">
-        <is>
-          <t>2020-11-07 17:05:54</t>
-        </is>
+      <c r="H283" s="1" t="n">
+        <v>44142.71243055556</v>
       </c>
       <c r="I283" t="n">
         <v>2</v>
@@ -21040,10 +20492,8 @@
           <t>3682184642</t>
         </is>
       </c>
-      <c r="H284" t="inlineStr">
-        <is>
-          <t>2020-11-07 17:05:52</t>
-        </is>
+      <c r="H284" s="1" t="n">
+        <v>44142.71240740741</v>
       </c>
       <c r="I284" t="n">
         <v>0</v>
@@ -21115,10 +20565,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H285" t="inlineStr">
-        <is>
-          <t>2020-11-07 17:05:16</t>
-        </is>
+      <c r="H285" s="1" t="n">
+        <v>44142.71199074074</v>
       </c>
       <c r="I285" t="n">
         <v>0</v>
@@ -21194,10 +20642,8 @@
           <t>3682186975</t>
         </is>
       </c>
-      <c r="H286" t="inlineStr">
-        <is>
-          <t>2020-11-07 17:05:09</t>
-        </is>
+      <c r="H286" s="1" t="n">
+        <v>44142.71190972222</v>
       </c>
       <c r="I286" t="n">
         <v>0</v>
@@ -21273,10 +20719,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H287" t="inlineStr">
-        <is>
-          <t>2020-11-07 17:00:27</t>
-        </is>
+      <c r="H287" s="1" t="n">
+        <v>44142.70864583334</v>
       </c>
       <c r="I287" t="n">
         <v>0</v>
@@ -21344,10 +20788,8 @@
           <t>3682110537</t>
         </is>
       </c>
-      <c r="H288" t="inlineStr">
-        <is>
-          <t>2020-11-07 16:59:53</t>
-        </is>
+      <c r="H288" s="1" t="n">
+        <v>44142.70825231481</v>
       </c>
       <c r="I288" t="n">
         <v>4</v>
@@ -21423,10 +20865,8 @@
           <t>3682149871</t>
         </is>
       </c>
-      <c r="H289" t="inlineStr">
-        <is>
-          <t>2020-11-07 16:56:27</t>
-        </is>
+      <c r="H289" s="1" t="n">
+        <v>44142.70586805556</v>
       </c>
       <c r="I289" t="n">
         <v>4</v>
@@ -21502,10 +20942,8 @@
           <t>3682153685</t>
         </is>
       </c>
-      <c r="H290" t="inlineStr">
-        <is>
-          <t>2020-11-07 16:56:05</t>
-        </is>
+      <c r="H290" s="1" t="n">
+        <v>44142.70561342593</v>
       </c>
       <c r="I290" t="n">
         <v>0</v>
@@ -21581,10 +21019,8 @@
           <t>3682148655</t>
         </is>
       </c>
-      <c r="H291" t="inlineStr">
-        <is>
-          <t>2020-11-07 16:55:24</t>
-        </is>
+      <c r="H291" s="1" t="n">
+        <v>44142.70513888889</v>
       </c>
       <c r="I291" t="n">
         <v>3</v>
@@ -21660,10 +21096,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H292" t="inlineStr">
-        <is>
-          <t>2020-11-07 16:55:23</t>
-        </is>
+      <c r="H292" s="1" t="n">
+        <v>44142.70512731482</v>
       </c>
       <c r="I292" t="n">
         <v>0</v>
@@ -21739,10 +21173,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H293" t="inlineStr">
-        <is>
-          <t>2020-11-07 16:55:21</t>
-        </is>
+      <c r="H293" s="1" t="n">
+        <v>44142.70510416666</v>
       </c>
       <c r="I293" t="n">
         <v>0</v>
@@ -21810,10 +21242,8 @@
           <t>3682150166</t>
         </is>
       </c>
-      <c r="H294" t="inlineStr">
-        <is>
-          <t>2020-11-07 16:52:52</t>
-        </is>
+      <c r="H294" s="1" t="n">
+        <v>44142.70337962963</v>
       </c>
       <c r="I294" t="n">
         <v>0</v>
@@ -21877,10 +21307,8 @@
           <t>3681692138</t>
         </is>
       </c>
-      <c r="H295" t="inlineStr">
-        <is>
-          <t>2020-11-07 16:51:32</t>
-        </is>
+      <c r="H295" s="1" t="n">
+        <v>44142.70245370371</v>
       </c>
       <c r="I295" t="n">
         <v>0</v>
@@ -21956,10 +21384,8 @@
           <t>3682140582</t>
         </is>
       </c>
-      <c r="H296" t="inlineStr">
-        <is>
-          <t>2020-11-07 16:50:19</t>
-        </is>
+      <c r="H296" s="1" t="n">
+        <v>44142.7016087963</v>
       </c>
       <c r="I296" t="n">
         <v>1</v>
@@ -22023,10 +21449,8 @@
           <t>3682129697</t>
         </is>
       </c>
-      <c r="H297" t="inlineStr">
-        <is>
-          <t>2020-11-07 16:49:27</t>
-        </is>
+      <c r="H297" s="1" t="n">
+        <v>44142.70100694444</v>
       </c>
       <c r="I297" t="n">
         <v>0</v>
@@ -22090,10 +21514,8 @@
           <t>3682131380</t>
         </is>
       </c>
-      <c r="H298" t="inlineStr">
-        <is>
-          <t>2020-11-07 16:48:54</t>
-        </is>
+      <c r="H298" s="1" t="n">
+        <v>44142.700625</v>
       </c>
       <c r="I298" t="n">
         <v>0</v>
@@ -22169,10 +21591,8 @@
           <t>3682128993</t>
         </is>
       </c>
-      <c r="H299" t="inlineStr">
-        <is>
-          <t>2020-11-07 16:48:51</t>
-        </is>
+      <c r="H299" s="1" t="n">
+        <v>44142.70059027777</v>
       </c>
       <c r="I299" t="n">
         <v>1</v>
@@ -22240,10 +21660,8 @@
           <t>3682126755</t>
         </is>
       </c>
-      <c r="H300" t="inlineStr">
-        <is>
-          <t>2020-11-07 16:46:44</t>
-        </is>
+      <c r="H300" s="1" t="n">
+        <v>44142.69912037037</v>
       </c>
       <c r="I300" t="n">
         <v>0</v>
@@ -22307,10 +21725,8 @@
           <t>3682118873</t>
         </is>
       </c>
-      <c r="H301" t="inlineStr">
-        <is>
-          <t>2020-11-07 16:46:31</t>
-        </is>
+      <c r="H301" s="1" t="n">
+        <v>44142.6989699074</v>
       </c>
       <c r="I301" t="n">
         <v>0</v>
@@ -22382,10 +21798,8 @@
           <t>3682120864</t>
         </is>
       </c>
-      <c r="H302" t="inlineStr">
-        <is>
-          <t>2020-11-07 16:44:05</t>
-        </is>
+      <c r="H302" s="1" t="n">
+        <v>44142.69728009259</v>
       </c>
       <c r="I302" t="n">
         <v>13</v>
@@ -22461,10 +21875,8 @@
           <t>3682115842</t>
         </is>
       </c>
-      <c r="H303" t="inlineStr">
-        <is>
-          <t>2020-11-07 16:43:41</t>
-        </is>
+      <c r="H303" s="1" t="n">
+        <v>44142.69700231482</v>
       </c>
       <c r="I303" t="n">
         <v>10</v>
@@ -22541,10 +21953,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H304" t="inlineStr">
-        <is>
-          <t>2020-11-07 16:43:35</t>
-        </is>
+      <c r="H304" s="1" t="n">
+        <v>44142.69693287037</v>
       </c>
       <c r="I304" t="n">
         <v>0</v>
@@ -22617,10 +22027,8 @@
           <t>3682112330</t>
         </is>
       </c>
-      <c r="H305" t="inlineStr">
-        <is>
-          <t>2020-11-07 16:42:39</t>
-        </is>
+      <c r="H305" s="1" t="n">
+        <v>44142.69628472222</v>
       </c>
       <c r="I305" t="n">
         <v>1</v>
@@ -22697,10 +22105,8 @@
           <t>3681861208</t>
         </is>
       </c>
-      <c r="H306" t="inlineStr">
-        <is>
-          <t>2020-11-07 16:42:14</t>
-        </is>
+      <c r="H306" s="1" t="n">
+        <v>44142.69599537037</v>
       </c>
       <c r="I306" t="n">
         <v>5</v>
@@ -22768,10 +22174,8 @@
           <t>3681947736</t>
         </is>
       </c>
-      <c r="H307" t="inlineStr">
-        <is>
-          <t>2020-11-07 16:41:43</t>
-        </is>
+      <c r="H307" s="1" t="n">
+        <v>44142.69563657408</v>
       </c>
       <c r="I307" t="n">
         <v>1</v>
@@ -22835,10 +22239,8 @@
           <t>3682110537</t>
         </is>
       </c>
-      <c r="H308" t="inlineStr">
-        <is>
-          <t>2020-11-07 16:41:00</t>
-        </is>
+      <c r="H308" s="1" t="n">
+        <v>44142.69513888889</v>
       </c>
       <c r="I308" t="n">
         <v>9</v>
@@ -22907,10 +22309,8 @@
           <t>3681948719</t>
         </is>
       </c>
-      <c r="H309" t="inlineStr">
-        <is>
-          <t>2020-11-07 16:40:52</t>
-        </is>
+      <c r="H309" s="1" t="n">
+        <v>44142.6950462963</v>
       </c>
       <c r="I309" t="n">
         <v>2</v>
@@ -22986,10 +22386,8 @@
           <t>3682106163</t>
         </is>
       </c>
-      <c r="H310" t="inlineStr">
-        <is>
-          <t>2020-11-07 16:39:37</t>
-        </is>
+      <c r="H310" s="1" t="n">
+        <v>44142.69417824074</v>
       </c>
       <c r="I310" t="n">
         <v>2</v>
@@ -23066,10 +22464,8 @@
           <t>3681877112</t>
         </is>
       </c>
-      <c r="H311" t="inlineStr">
-        <is>
-          <t>2020-11-07 16:39:35</t>
-        </is>
+      <c r="H311" s="1" t="n">
+        <v>44142.69415509259</v>
       </c>
       <c r="I311" t="n">
         <v>4</v>
@@ -23145,10 +22541,8 @@
           <t>3681947736</t>
         </is>
       </c>
-      <c r="H312" t="inlineStr">
-        <is>
-          <t>2020-11-07 16:39:09</t>
-        </is>
+      <c r="H312" s="1" t="n">
+        <v>44142.69385416667</v>
       </c>
       <c r="I312" t="n">
         <v>1</v>
@@ -23225,10 +22619,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H313" t="inlineStr">
-        <is>
-          <t>2020-11-07 16:38:23</t>
-        </is>
+      <c r="H313" s="1" t="n">
+        <v>44142.69332175926</v>
       </c>
       <c r="I313" t="n">
         <v>0</v>
@@ -23304,10 +22696,8 @@
           <t>3682094728</t>
         </is>
       </c>
-      <c r="H314" t="inlineStr">
-        <is>
-          <t>2020-11-07 16:38:12</t>
-        </is>
+      <c r="H314" s="1" t="n">
+        <v>44142.69319444444</v>
       </c>
       <c r="I314" t="n">
         <v>3</v>
@@ -23375,10 +22765,8 @@
           <t>3681969006</t>
         </is>
       </c>
-      <c r="H315" t="inlineStr">
-        <is>
-          <t>2020-11-07 16:36:59</t>
-        </is>
+      <c r="H315" s="1" t="n">
+        <v>44142.69234953704</v>
       </c>
       <c r="I315" t="n">
         <v>0</v>
@@ -23446,10 +22834,8 @@
           <t>3681952113</t>
         </is>
       </c>
-      <c r="H316" t="inlineStr">
-        <is>
-          <t>2020-11-07 16:33:51</t>
-        </is>
+      <c r="H316" s="1" t="n">
+        <v>44142.69017361111</v>
       </c>
       <c r="I316" t="n">
         <v>0</v>
@@ -23525,10 +22911,8 @@
           <t>3681869361</t>
         </is>
       </c>
-      <c r="H317" t="inlineStr">
-        <is>
-          <t>2020-11-07 16:32:23</t>
-        </is>
+      <c r="H317" s="1" t="n">
+        <v>44142.68915509259</v>
       </c>
       <c r="I317" t="n">
         <v>0</v>
@@ -23596,10 +22980,8 @@
           <t>3681877112</t>
         </is>
       </c>
-      <c r="H318" t="inlineStr">
-        <is>
-          <t>2020-11-07 16:31:51</t>
-        </is>
+      <c r="H318" s="1" t="n">
+        <v>44142.68878472222</v>
       </c>
       <c r="I318" t="n">
         <v>6</v>
@@ -23675,10 +23057,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H319" t="inlineStr">
-        <is>
-          <t>2020-11-07 16:31:31</t>
-        </is>
+      <c r="H319" s="1" t="n">
+        <v>44142.68855324074</v>
       </c>
       <c r="I319" t="n">
         <v>2</v>
@@ -23754,10 +23134,8 @@
           <t>3681969006</t>
         </is>
       </c>
-      <c r="H320" t="inlineStr">
-        <is>
-          <t>2020-11-07 16:31:09</t>
-        </is>
+      <c r="H320" s="1" t="n">
+        <v>44142.68829861111</v>
       </c>
       <c r="I320" t="n">
         <v>4</v>
@@ -23825,10 +23203,8 @@
           <t>3681952113</t>
         </is>
       </c>
-      <c r="H321" t="inlineStr">
-        <is>
-          <t>2020-11-07 16:29:58</t>
-        </is>
+      <c r="H321" s="1" t="n">
+        <v>44142.68747685185</v>
       </c>
       <c r="I321" t="n">
         <v>1</v>
@@ -23904,10 +23280,8 @@
           <t>3682061516</t>
         </is>
       </c>
-      <c r="H322" t="inlineStr">
-        <is>
-          <t>2020-11-07 16:25:35</t>
-        </is>
+      <c r="H322" s="1" t="n">
+        <v>44142.68443287037</v>
       </c>
       <c r="I322" t="n">
         <v>2</v>
@@ -23984,10 +23358,8 @@
           <t>3682060198</t>
         </is>
       </c>
-      <c r="H323" t="inlineStr">
-        <is>
-          <t>2020-11-07 16:24:22</t>
-        </is>
+      <c r="H323" s="1" t="n">
+        <v>44142.68358796297</v>
       </c>
       <c r="I323" t="n">
         <v>3</v>
@@ -24055,10 +23427,8 @@
           <t>3681948719</t>
         </is>
       </c>
-      <c r="H324" t="inlineStr">
-        <is>
-          <t>2020-11-07 16:24:00</t>
-        </is>
+      <c r="H324" s="1" t="n">
+        <v>44142.68333333333</v>
       </c>
       <c r="I324" t="n">
         <v>4</v>
@@ -24126,10 +23496,8 @@
           <t>3682044568</t>
         </is>
       </c>
-      <c r="H325" t="inlineStr">
-        <is>
-          <t>2020-11-07 16:23:31</t>
-        </is>
+      <c r="H325" s="1" t="n">
+        <v>44142.68299768519</v>
       </c>
       <c r="I325" t="n">
         <v>0</v>
@@ -24201,10 +23569,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H326" t="inlineStr">
-        <is>
-          <t>2020-11-07 16:21:53</t>
-        </is>
+      <c r="H326" s="1" t="n">
+        <v>44142.68186342593</v>
       </c>
       <c r="I326" t="n">
         <v>0</v>
@@ -24276,10 +23642,8 @@
           <t>3681969006</t>
         </is>
       </c>
-      <c r="H327" t="inlineStr">
-        <is>
-          <t>2020-11-07 16:21:29</t>
-        </is>
+      <c r="H327" s="1" t="n">
+        <v>44142.68158564815</v>
       </c>
       <c r="I327" t="n">
         <v>2</v>
@@ -24347,10 +23711,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H328" t="inlineStr">
-        <is>
-          <t>2020-11-07 16:21:06</t>
-        </is>
+      <c r="H328" s="1" t="n">
+        <v>44142.68131944445</v>
       </c>
       <c r="I328" t="n">
         <v>0</v>
@@ -24422,10 +23784,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H329" t="inlineStr">
-        <is>
-          <t>2020-11-07 16:20:22</t>
-        </is>
+      <c r="H329" s="1" t="n">
+        <v>44142.68081018519</v>
       </c>
       <c r="I329" t="n">
         <v>1</v>
@@ -24497,10 +23857,8 @@
           <t>3682034951</t>
         </is>
       </c>
-      <c r="H330" t="inlineStr">
-        <is>
-          <t>2020-11-07 16:19:05</t>
-        </is>
+      <c r="H330" s="1" t="n">
+        <v>44142.67991898148</v>
       </c>
       <c r="I330" t="n">
         <v>12</v>
@@ -24576,10 +23934,8 @@
           <t>3682029482</t>
         </is>
       </c>
-      <c r="H331" t="inlineStr">
-        <is>
-          <t>2020-11-07 16:18:33</t>
-        </is>
+      <c r="H331" s="1" t="n">
+        <v>44142.67954861111</v>
       </c>
       <c r="I331" t="n">
         <v>7</v>
@@ -24651,10 +24007,8 @@
           <t>3681969006</t>
         </is>
       </c>
-      <c r="H332" t="inlineStr">
-        <is>
-          <t>2020-11-07 16:18:26</t>
-        </is>
+      <c r="H332" s="1" t="n">
+        <v>44142.67946759259</v>
       </c>
       <c r="I332" t="n">
         <v>4</v>
@@ -24722,10 +24076,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H333" t="inlineStr">
-        <is>
-          <t>2020-11-07 16:15:16</t>
-        </is>
+      <c r="H333" s="1" t="n">
+        <v>44142.67726851852</v>
       </c>
       <c r="I333" t="n">
         <v>0</v>
@@ -24793,10 +24145,8 @@
           <t>3681861208</t>
         </is>
       </c>
-      <c r="H334" t="inlineStr">
-        <is>
-          <t>2020-11-07 16:13:07</t>
-        </is>
+      <c r="H334" s="1" t="n">
+        <v>44142.67577546297</v>
       </c>
       <c r="I334" t="n">
         <v>18</v>
@@ -24868,10 +24218,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H335" t="inlineStr">
-        <is>
-          <t>2020-11-07 16:12:50</t>
-        </is>
+      <c r="H335" s="1" t="n">
+        <v>44142.6755787037</v>
       </c>
       <c r="I335" t="n">
         <v>3</v>
@@ -24949,10 +24297,8 @@
           <t>3681947736</t>
         </is>
       </c>
-      <c r="H336" t="inlineStr">
-        <is>
-          <t>2020-11-07 16:09:54</t>
-        </is>
+      <c r="H336" s="1" t="n">
+        <v>44142.67354166666</v>
       </c>
       <c r="I336" t="n">
         <v>18</v>
@@ -25016,10 +24362,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H337" t="inlineStr">
-        <is>
-          <t>2020-11-07 16:07:03</t>
-        </is>
+      <c r="H337" s="1" t="n">
+        <v>44142.6715625</v>
       </c>
       <c r="I337" t="n">
         <v>1</v>
@@ -25095,10 +24439,8 @@
           <t>3681877112</t>
         </is>
       </c>
-      <c r="H338" t="inlineStr">
-        <is>
-          <t>2020-11-07 16:03:06</t>
-        </is>
+      <c r="H338" s="1" t="n">
+        <v>44142.66881944444</v>
       </c>
       <c r="I338" t="n">
         <v>11</v>
@@ -25166,10 +24508,8 @@
           <t>3681969006</t>
         </is>
       </c>
-      <c r="H339" t="inlineStr">
-        <is>
-          <t>2020-11-07 15:57:57</t>
-        </is>
+      <c r="H339" s="1" t="n">
+        <v>44142.66524305556</v>
       </c>
       <c r="I339" t="n">
         <v>4</v>
@@ -25237,10 +24577,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H340" t="inlineStr">
-        <is>
-          <t>2020-11-07 15:57:24</t>
-        </is>
+      <c r="H340" s="1" t="n">
+        <v>44142.66486111111</v>
       </c>
       <c r="I340" t="n">
         <v>0</v>
@@ -25304,10 +24642,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H341" t="inlineStr">
-        <is>
-          <t>2020-11-07 15:57:13</t>
-        </is>
+      <c r="H341" s="1" t="n">
+        <v>44142.66473379629</v>
       </c>
       <c r="I341" t="n">
         <v>61</v>
@@ -25375,10 +24711,8 @@
           <t>3681975411</t>
         </is>
       </c>
-      <c r="H342" t="inlineStr">
-        <is>
-          <t>2020-11-07 15:56:56</t>
-        </is>
+      <c r="H342" s="1" t="n">
+        <v>44142.66453703704</v>
       </c>
       <c r="I342" t="n">
         <v>5</v>
@@ -25446,10 +24780,8 @@
           <t>3681952113</t>
         </is>
       </c>
-      <c r="H343" t="inlineStr">
-        <is>
-          <t>2020-11-07 15:55:12</t>
-        </is>
+      <c r="H343" s="1" t="n">
+        <v>44142.66333333333</v>
       </c>
       <c r="I343" t="n">
         <v>8</v>
@@ -25513,10 +24845,8 @@
           <t>3681877112</t>
         </is>
       </c>
-      <c r="H344" t="inlineStr">
-        <is>
-          <t>2020-11-07 15:54:24</t>
-        </is>
+      <c r="H344" s="1" t="n">
+        <v>44142.66277777778</v>
       </c>
       <c r="I344" t="n">
         <v>4</v>
@@ -25584,10 +24914,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H345" t="inlineStr">
-        <is>
-          <t>2020-11-07 15:54:07</t>
-        </is>
+      <c r="H345" s="1" t="n">
+        <v>44142.66258101852</v>
       </c>
       <c r="I345" t="n">
         <v>0</v>
@@ -25655,10 +24983,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H346" t="inlineStr">
-        <is>
-          <t>2020-11-07 15:53:21</t>
-        </is>
+      <c r="H346" s="1" t="n">
+        <v>44142.66204861111</v>
       </c>
       <c r="I346" t="n">
         <v>0</v>
@@ -25722,10 +25048,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H347" t="inlineStr">
-        <is>
-          <t>2020-11-07 15:52:13</t>
-        </is>
+      <c r="H347" s="1" t="n">
+        <v>44142.66126157407</v>
       </c>
       <c r="I347" t="n">
         <v>0</v>
@@ -25793,10 +25117,8 @@
           <t>3681952113</t>
         </is>
       </c>
-      <c r="H348" t="inlineStr">
-        <is>
-          <t>2020-11-07 15:50:40</t>
-        </is>
+      <c r="H348" s="1" t="n">
+        <v>44142.66018518519</v>
       </c>
       <c r="I348" t="n">
         <v>0</v>
@@ -25872,10 +25194,8 @@
           <t>3681948719</t>
         </is>
       </c>
-      <c r="H349" t="inlineStr">
-        <is>
-          <t>2020-11-07 15:49:47</t>
-        </is>
+      <c r="H349" s="1" t="n">
+        <v>44142.65957175926</v>
       </c>
       <c r="I349" t="n">
         <v>0</v>
@@ -25943,10 +25263,8 @@
           <t>3681948130</t>
         </is>
       </c>
-      <c r="H350" t="inlineStr">
-        <is>
-          <t>2020-11-07 15:49:10</t>
-        </is>
+      <c r="H350" s="1" t="n">
+        <v>44142.65914351852</v>
       </c>
       <c r="I350" t="n">
         <v>0</v>
@@ -26014,10 +25332,8 @@
           <t>3681903735</t>
         </is>
       </c>
-      <c r="H351" t="inlineStr">
-        <is>
-          <t>2020-11-07 15:48:49</t>
-        </is>
+      <c r="H351" s="1" t="n">
+        <v>44142.65890046296</v>
       </c>
       <c r="I351" t="n">
         <v>3</v>
@@ -26085,10 +25401,8 @@
           <t>3681947736</t>
         </is>
       </c>
-      <c r="H352" t="inlineStr">
-        <is>
-          <t>2020-11-07 15:48:47</t>
-        </is>
+      <c r="H352" s="1" t="n">
+        <v>44142.65887731482</v>
       </c>
       <c r="I352" t="n">
         <v>2</v>
@@ -26165,10 +25479,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H353" t="inlineStr">
-        <is>
-          <t>2020-11-07 15:48:23</t>
-        </is>
+      <c r="H353" s="1" t="n">
+        <v>44142.65859953704</v>
       </c>
       <c r="I353" t="n">
         <v>2</v>
@@ -26236,10 +25548,8 @@
           <t>3681946751</t>
         </is>
       </c>
-      <c r="H354" t="inlineStr">
-        <is>
-          <t>2020-11-07 15:47:44</t>
-        </is>
+      <c r="H354" s="1" t="n">
+        <v>44142.65814814815</v>
       </c>
       <c r="I354" t="n">
         <v>3</v>
@@ -26315,10 +25625,8 @@
           <t>3681903735</t>
         </is>
       </c>
-      <c r="H355" t="inlineStr">
-        <is>
-          <t>2020-11-07 15:46:26</t>
-        </is>
+      <c r="H355" s="1" t="n">
+        <v>44142.65724537037</v>
       </c>
       <c r="I355" t="n">
         <v>2</v>
@@ -26394,10 +25702,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H356" t="inlineStr">
-        <is>
-          <t>2020-11-07 15:45:06</t>
-        </is>
+      <c r="H356" s="1" t="n">
+        <v>44142.65631944445</v>
       </c>
       <c r="I356" t="n">
         <v>0</v>
@@ -26461,10 +25767,8 @@
           <t>3681940475</t>
         </is>
       </c>
-      <c r="H357" t="inlineStr">
-        <is>
-          <t>2020-11-07 15:43:45</t>
-        </is>
+      <c r="H357" s="1" t="n">
+        <v>44142.65538194445</v>
       </c>
       <c r="I357" t="n">
         <v>1</v>
@@ -26540,10 +25844,8 @@
           <t>3681940126</t>
         </is>
       </c>
-      <c r="H358" t="inlineStr">
-        <is>
-          <t>2020-11-07 15:43:24</t>
-        </is>
+      <c r="H358" s="1" t="n">
+        <v>44142.65513888889</v>
       </c>
       <c r="I358" t="n">
         <v>0</v>
@@ -26611,10 +25913,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H359" t="inlineStr">
-        <is>
-          <t>2020-11-07 15:43:10</t>
-        </is>
+      <c r="H359" s="1" t="n">
+        <v>44142.65497685185</v>
       </c>
       <c r="I359" t="n">
         <v>0</v>
@@ -26678,10 +25978,8 @@
           <t>3681877112</t>
         </is>
       </c>
-      <c r="H360" t="inlineStr">
-        <is>
-          <t>2020-11-07 15:41:48</t>
-        </is>
+      <c r="H360" s="1" t="n">
+        <v>44142.65402777777</v>
       </c>
       <c r="I360" t="n">
         <v>7</v>
@@ -26757,10 +26055,8 @@
           <t>3681861208</t>
         </is>
       </c>
-      <c r="H361" t="inlineStr">
-        <is>
-          <t>2020-11-07 15:40:53</t>
-        </is>
+      <c r="H361" s="1" t="n">
+        <v>44142.6533912037</v>
       </c>
       <c r="I361" t="n">
         <v>11</v>
@@ -26828,10 +26124,8 @@
           <t>3681920887</t>
         </is>
       </c>
-      <c r="H362" t="inlineStr">
-        <is>
-          <t>2020-11-07 15:38:46</t>
-        </is>
+      <c r="H362" s="1" t="n">
+        <v>44142.6519212963</v>
       </c>
       <c r="I362" t="n">
         <v>0</v>
@@ -26908,10 +26202,8 @@
           <t>3681845302</t>
         </is>
       </c>
-      <c r="H363" t="inlineStr">
-        <is>
-          <t>2020-11-07 15:38:39</t>
-        </is>
+      <c r="H363" s="1" t="n">
+        <v>44142.65184027778</v>
       </c>
       <c r="I363" t="n">
         <v>1</v>
@@ -26983,10 +26275,8 @@
           <t>3681845302</t>
         </is>
       </c>
-      <c r="H364" t="inlineStr">
-        <is>
-          <t>2020-11-07 15:38:25</t>
-        </is>
+      <c r="H364" s="1" t="n">
+        <v>44142.65167824074</v>
       </c>
       <c r="I364" t="n">
         <v>1</v>
@@ -27058,10 +26348,8 @@
           <t>3681920071</t>
         </is>
       </c>
-      <c r="H365" t="inlineStr">
-        <is>
-          <t>2020-11-07 15:37:54</t>
-        </is>
+      <c r="H365" s="1" t="n">
+        <v>44142.65131944444</v>
       </c>
       <c r="I365" t="n">
         <v>3</v>
@@ -27133,10 +26421,8 @@
           <t>3681914002</t>
         </is>
       </c>
-      <c r="H366" t="inlineStr">
-        <is>
-          <t>2020-11-07 15:36:48</t>
-        </is>
+      <c r="H366" s="1" t="n">
+        <v>44142.65055555556</v>
       </c>
       <c r="I366" t="n">
         <v>5</v>
@@ -27200,10 +26486,8 @@
           <t>3681907781</t>
         </is>
       </c>
-      <c r="H367" t="inlineStr">
-        <is>
-          <t>2020-11-07 15:35:29</t>
-        </is>
+      <c r="H367" s="1" t="n">
+        <v>44142.6496412037</v>
       </c>
       <c r="I367" t="n">
         <v>1</v>
@@ -27279,10 +26563,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H368" t="inlineStr">
-        <is>
-          <t>2020-11-07 15:35:26</t>
-        </is>
+      <c r="H368" s="1" t="n">
+        <v>44142.64960648148</v>
       </c>
       <c r="I368" t="n">
         <v>1</v>
@@ -27354,10 +26636,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H369" t="inlineStr">
-        <is>
-          <t>2020-11-07 15:35:02</t>
-        </is>
+      <c r="H369" s="1" t="n">
+        <v>44142.6493287037</v>
       </c>
       <c r="I369" t="n">
         <v>2</v>
@@ -27429,10 +26709,8 @@
           <t>3681904337</t>
         </is>
       </c>
-      <c r="H370" t="inlineStr">
-        <is>
-          <t>2020-11-07 15:34:29</t>
-        </is>
+      <c r="H370" s="1" t="n">
+        <v>44142.64894675926</v>
       </c>
       <c r="I370" t="n">
         <v>1</v>
@@ -27500,10 +26778,8 @@
           <t>3681906399</t>
         </is>
       </c>
-      <c r="H371" t="inlineStr">
-        <is>
-          <t>2020-11-07 15:33:59</t>
-        </is>
+      <c r="H371" s="1" t="n">
+        <v>44142.64859953704</v>
       </c>
       <c r="I371" t="n">
         <v>0</v>
@@ -27575,10 +26851,8 @@
           <t>3681903735</t>
         </is>
       </c>
-      <c r="H372" t="inlineStr">
-        <is>
-          <t>2020-11-07 15:33:50</t>
-        </is>
+      <c r="H372" s="1" t="n">
+        <v>44142.64849537037</v>
       </c>
       <c r="I372" t="n">
         <v>0</v>
@@ -27646,10 +26920,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H373" t="inlineStr">
-        <is>
-          <t>2020-11-07 15:33:32</t>
-        </is>
+      <c r="H373" s="1" t="n">
+        <v>44142.64828703704</v>
       </c>
       <c r="I373" t="n">
         <v>0</v>
@@ -27721,10 +26993,8 @@
           <t>3681861208</t>
         </is>
       </c>
-      <c r="H374" t="inlineStr">
-        <is>
-          <t>2020-11-07 15:32:55</t>
-        </is>
+      <c r="H374" s="1" t="n">
+        <v>44142.6478587963</v>
       </c>
       <c r="I374" t="n">
         <v>22</v>
@@ -27793,10 +27063,8 @@
           <t>3681877112</t>
         </is>
       </c>
-      <c r="H375" t="inlineStr">
-        <is>
-          <t>2020-11-07 15:32:21</t>
-        </is>
+      <c r="H375" s="1" t="n">
+        <v>44142.64746527778</v>
       </c>
       <c r="I375" t="n">
         <v>4</v>
@@ -27864,10 +27132,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H376" t="inlineStr">
-        <is>
-          <t>2020-11-07 15:32:19</t>
-        </is>
+      <c r="H376" s="1" t="n">
+        <v>44142.64744212963</v>
       </c>
       <c r="I376" t="n">
         <v>0</v>
@@ -27927,10 +27193,8 @@
           <t>3681892551</t>
         </is>
       </c>
-      <c r="H377" t="inlineStr">
-        <is>
-          <t>2020-11-07 15:29:57</t>
-        </is>
+      <c r="H377" s="1" t="n">
+        <v>44142.64579861111</v>
       </c>
       <c r="I377" t="n">
         <v>0</v>
@@ -27998,10 +27262,8 @@
           <t>3681845302</t>
         </is>
       </c>
-      <c r="H378" t="inlineStr">
-        <is>
-          <t>2020-11-07 15:28:22</t>
-        </is>
+      <c r="H378" s="1" t="n">
+        <v>44142.64469907407</v>
       </c>
       <c r="I378" t="n">
         <v>1</v>
@@ -28077,10 +27339,8 @@
           <t>3681886781</t>
         </is>
       </c>
-      <c r="H379" t="inlineStr">
-        <is>
-          <t>2020-11-07 15:26:31</t>
-        </is>
+      <c r="H379" s="1" t="n">
+        <v>44142.64341435185</v>
       </c>
       <c r="I379" t="n">
         <v>6</v>
@@ -28152,10 +27412,8 @@
           <t>3681877112</t>
         </is>
       </c>
-      <c r="H380" t="inlineStr">
-        <is>
-          <t>2020-11-07 15:26:04</t>
-        </is>
+      <c r="H380" s="1" t="n">
+        <v>44142.64310185185</v>
       </c>
       <c r="I380" t="n">
         <v>5</v>
@@ -28231,10 +27489,8 @@
           <t>3681877112</t>
         </is>
       </c>
-      <c r="H381" t="inlineStr">
-        <is>
-          <t>2020-11-07 15:25:27</t>
-        </is>
+      <c r="H381" s="1" t="n">
+        <v>44142.64267361111</v>
       </c>
       <c r="I381" t="n">
         <v>20</v>
@@ -28302,10 +27558,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H382" t="inlineStr">
-        <is>
-          <t>2020-11-07 15:24:32</t>
-        </is>
+      <c r="H382" s="1" t="n">
+        <v>44142.64203703704</v>
       </c>
       <c r="I382" t="n">
         <v>0</v>
@@ -28369,10 +27623,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H383" t="inlineStr">
-        <is>
-          <t>2020-11-07 15:24:15</t>
-        </is>
+      <c r="H383" s="1" t="n">
+        <v>44142.64184027778</v>
       </c>
       <c r="I383" t="n">
         <v>0</v>
@@ -28432,10 +27684,8 @@
           <t>3681877112</t>
         </is>
       </c>
-      <c r="H384" t="inlineStr">
-        <is>
-          <t>2020-11-07 15:24:02</t>
-        </is>
+      <c r="H384" s="1" t="n">
+        <v>44142.64168981482</v>
       </c>
       <c r="I384" t="n">
         <v>20</v>
@@ -28511,10 +27761,8 @@
           <t>3681869361</t>
         </is>
       </c>
-      <c r="H385" t="inlineStr">
-        <is>
-          <t>2020-11-07 15:23:20</t>
-        </is>
+      <c r="H385" s="1" t="n">
+        <v>44142.6412037037</v>
       </c>
       <c r="I385" t="n">
         <v>7</v>
@@ -28582,10 +27830,8 @@
           <t>3681881170</t>
         </is>
       </c>
-      <c r="H386" t="inlineStr">
-        <is>
-          <t>2020-11-07 15:23:14</t>
-        </is>
+      <c r="H386" s="1" t="n">
+        <v>44142.64113425926</v>
       </c>
       <c r="I386" t="n">
         <v>9</v>
@@ -28649,10 +27895,8 @@
           <t>3681880951</t>
         </is>
       </c>
-      <c r="H387" t="inlineStr">
-        <is>
-          <t>2020-11-07 15:22:59</t>
-        </is>
+      <c r="H387" s="1" t="n">
+        <v>44142.64096064815</v>
       </c>
       <c r="I387" t="n">
         <v>0</v>
@@ -28728,10 +27972,8 @@
           <t>3681845302</t>
         </is>
       </c>
-      <c r="H388" t="inlineStr">
-        <is>
-          <t>2020-11-07 15:22:18</t>
-        </is>
+      <c r="H388" s="1" t="n">
+        <v>44142.64048611111</v>
       </c>
       <c r="I388" t="n">
         <v>0</v>
@@ -28803,10 +28045,8 @@
           <t>3681845302</t>
         </is>
       </c>
-      <c r="H389" t="inlineStr">
-        <is>
-          <t>2020-11-07 15:22:11</t>
-        </is>
+      <c r="H389" s="1" t="n">
+        <v>44142.64040509259</v>
       </c>
       <c r="I389" t="n">
         <v>0</v>
@@ -28878,10 +28118,8 @@
           <t>3681871961</t>
         </is>
       </c>
-      <c r="H390" t="inlineStr">
-        <is>
-          <t>2020-11-07 15:21:25</t>
-        </is>
+      <c r="H390" s="1" t="n">
+        <v>44142.63987268518</v>
       </c>
       <c r="I390" t="n">
         <v>0</v>
@@ -28945,10 +28183,8 @@
           <t>3681869361</t>
         </is>
       </c>
-      <c r="H391" t="inlineStr">
-        <is>
-          <t>2020-11-07 15:21:23</t>
-        </is>
+      <c r="H391" s="1" t="n">
+        <v>44142.63984953704</v>
       </c>
       <c r="I391" t="n">
         <v>0</v>
@@ -29016,10 +28252,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H392" t="inlineStr">
-        <is>
-          <t>2020-11-07 15:21:11</t>
-        </is>
+      <c r="H392" s="1" t="n">
+        <v>44142.63971064815</v>
       </c>
       <c r="I392" t="n">
         <v>2</v>
@@ -29091,10 +28325,8 @@
           <t>3681870614</t>
         </is>
       </c>
-      <c r="H393" t="inlineStr">
-        <is>
-          <t>2020-11-07 15:20:03</t>
-        </is>
+      <c r="H393" s="1" t="n">
+        <v>44142.63892361111</v>
       </c>
       <c r="I393" t="n">
         <v>7</v>
@@ -29158,10 +28390,8 @@
           <t>3681861208</t>
         </is>
       </c>
-      <c r="H394" t="inlineStr">
-        <is>
-          <t>2020-11-07 15:19:34</t>
-        </is>
+      <c r="H394" s="1" t="n">
+        <v>44142.63858796296</v>
       </c>
       <c r="I394" t="n">
         <v>34</v>
@@ -29229,10 +28459,8 @@
           <t>3681862790</t>
         </is>
       </c>
-      <c r="H395" t="inlineStr">
-        <is>
-          <t>2020-11-07 15:19:30</t>
-        </is>
+      <c r="H395" s="1" t="n">
+        <v>44142.63854166667</v>
       </c>
       <c r="I395" t="n">
         <v>0</v>
@@ -29304,10 +28532,8 @@
           <t>3681867488</t>
         </is>
       </c>
-      <c r="H396" t="inlineStr">
-        <is>
-          <t>2020-11-07 15:19:24</t>
-        </is>
+      <c r="H396" s="1" t="n">
+        <v>44142.63847222222</v>
       </c>
       <c r="I396" t="n">
         <v>15</v>
@@ -29383,10 +28609,8 @@
           <t>3681861208</t>
         </is>
       </c>
-      <c r="H397" t="inlineStr">
-        <is>
-          <t>2020-11-07 15:17:54</t>
-        </is>
+      <c r="H397" s="1" t="n">
+        <v>44142.63743055556</v>
       </c>
       <c r="I397" t="n">
         <v>73</v>
@@ -29454,10 +28678,8 @@
           <t>3681837098</t>
         </is>
       </c>
-      <c r="H398" t="inlineStr">
-        <is>
-          <t>2020-11-07 15:16:57</t>
-        </is>
+      <c r="H398" s="1" t="n">
+        <v>44142.63677083333</v>
       </c>
       <c r="I398" t="n">
         <v>0</v>
@@ -29533,10 +28755,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H399" t="inlineStr">
-        <is>
-          <t>2020-11-07 15:16:23</t>
-        </is>
+      <c r="H399" s="1" t="n">
+        <v>44142.63637731481</v>
       </c>
       <c r="I399" t="n">
         <v>27</v>
@@ -29601,10 +28821,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H400" t="inlineStr">
-        <is>
-          <t>2020-11-07 15:14:06</t>
-        </is>
+      <c r="H400" s="1" t="n">
+        <v>44142.63479166666</v>
       </c>
       <c r="I400" t="n">
         <v>0</v>
@@ -29673,10 +28891,8 @@
           <t>3681847521</t>
         </is>
       </c>
-      <c r="H401" t="inlineStr">
-        <is>
-          <t>2020-11-07 15:14:01</t>
-        </is>
+      <c r="H401" s="1" t="n">
+        <v>44142.63473379629</v>
       </c>
       <c r="I401" t="n">
         <v>0</v>
@@ -29744,10 +28960,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H402" t="inlineStr">
-        <is>
-          <t>2020-11-07 15:13:42</t>
-        </is>
+      <c r="H402" s="1" t="n">
+        <v>44142.63451388889</v>
       </c>
       <c r="I402" t="n">
         <v>7</v>
@@ -29823,10 +29037,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H403" t="inlineStr">
-        <is>
-          <t>2020-11-07 15:11:54</t>
-        </is>
+      <c r="H403" s="1" t="n">
+        <v>44142.63326388889</v>
       </c>
       <c r="I403" t="n">
         <v>0</v>
@@ -29890,10 +29102,8 @@
           <t>3681845302</t>
         </is>
       </c>
-      <c r="H404" t="inlineStr">
-        <is>
-          <t>2020-11-07 15:11:37</t>
-        </is>
+      <c r="H404" s="1" t="n">
+        <v>44142.63306712963</v>
       </c>
       <c r="I404" t="n">
         <v>0</v>
@@ -29969,10 +29179,8 @@
           <t>3681842140</t>
         </is>
       </c>
-      <c r="H405" t="inlineStr">
-        <is>
-          <t>2020-11-07 15:11:15</t>
-        </is>
+      <c r="H405" s="1" t="n">
+        <v>44142.6328125</v>
       </c>
       <c r="I405" t="n">
         <v>0</v>
@@ -30044,10 +29252,8 @@
           <t>3681837098</t>
         </is>
       </c>
-      <c r="H406" t="inlineStr">
-        <is>
-          <t>2020-11-07 15:08:24</t>
-        </is>
+      <c r="H406" s="1" t="n">
+        <v>44142.63083333334</v>
       </c>
       <c r="I406" t="n">
         <v>0</v>
@@ -30140,10 +29346,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H407" t="inlineStr">
-        <is>
-          <t>2020-11-07 15:07:59</t>
-        </is>
+      <c r="H407" s="1" t="n">
+        <v>44142.63054398148</v>
       </c>
       <c r="I407" t="n">
         <v>24</v>
@@ -30215,10 +29419,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H408" t="inlineStr">
-        <is>
-          <t>2020-11-07 15:07:06</t>
-        </is>
+      <c r="H408" s="1" t="n">
+        <v>44142.62993055556</v>
       </c>
       <c r="I408" t="n">
         <v>0</v>
@@ -30295,10 +29497,8 @@
           <t>3681835164</t>
         </is>
       </c>
-      <c r="H409" t="inlineStr">
-        <is>
-          <t>2020-11-07 15:06:25</t>
-        </is>
+      <c r="H409" s="1" t="n">
+        <v>44142.62945601852</v>
       </c>
       <c r="I409" t="n">
         <v>1</v>
@@ -30362,10 +29562,8 @@
           <t>3681824498</t>
         </is>
       </c>
-      <c r="H410" t="inlineStr">
-        <is>
-          <t>2020-11-07 15:05:42</t>
-        </is>
+      <c r="H410" s="1" t="n">
+        <v>44142.62895833333</v>
       </c>
       <c r="I410" t="n">
         <v>0</v>
@@ -30429,10 +29627,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H411" t="inlineStr">
-        <is>
-          <t>2020-11-07 15:04:03</t>
-        </is>
+      <c r="H411" s="1" t="n">
+        <v>44142.6278125</v>
       </c>
       <c r="I411" t="n">
         <v>0</v>
@@ -30508,10 +29704,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H412" t="inlineStr">
-        <is>
-          <t>2020-11-07 15:02:36</t>
-        </is>
+      <c r="H412" s="1" t="n">
+        <v>44142.62680555556</v>
       </c>
       <c r="I412" t="n">
         <v>0</v>
@@ -30575,10 +29769,8 @@
           <t>3681821283</t>
         </is>
       </c>
-      <c r="H413" t="inlineStr">
-        <is>
-          <t>2020-11-07 15:02:18</t>
-        </is>
+      <c r="H413" s="1" t="n">
+        <v>44142.62659722222</v>
       </c>
       <c r="I413" t="n">
         <v>0</v>
@@ -30650,10 +29842,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H414" t="inlineStr">
-        <is>
-          <t>2020-11-07 15:01:25</t>
-        </is>
+      <c r="H414" s="1" t="n">
+        <v>44142.62598379629</v>
       </c>
       <c r="I414" t="n">
         <v>0</v>
@@ -30725,10 +29915,8 @@
           <t>3681692138</t>
         </is>
       </c>
-      <c r="H415" t="inlineStr">
-        <is>
-          <t>2020-11-07 15:00:02</t>
-        </is>
+      <c r="H415" s="1" t="n">
+        <v>44142.62502314815</v>
       </c>
       <c r="I415" t="n">
         <v>1</v>
@@ -30796,10 +29984,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H416" t="inlineStr">
-        <is>
-          <t>2020-11-07 14:59:02</t>
-        </is>
+      <c r="H416" s="1" t="n">
+        <v>44142.62432870371</v>
       </c>
       <c r="I416" t="n">
         <v>0</v>
@@ -30871,10 +30057,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H417" t="inlineStr">
-        <is>
-          <t>2020-11-07 14:58:37</t>
-        </is>
+      <c r="H417" s="1" t="n">
+        <v>44142.62403935185</v>
       </c>
       <c r="I417" t="n">
         <v>0</v>
@@ -30950,10 +30134,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H418" t="inlineStr">
-        <is>
-          <t>2020-11-07 14:58:07</t>
-        </is>
+      <c r="H418" s="1" t="n">
+        <v>44142.62369212963</v>
       </c>
       <c r="I418" t="n">
         <v>0</v>
@@ -31029,10 +30211,8 @@
           <t>3681796110</t>
         </is>
       </c>
-      <c r="H419" t="inlineStr">
-        <is>
-          <t>2020-11-07 14:54:21</t>
-        </is>
+      <c r="H419" s="1" t="n">
+        <v>44142.62107638889</v>
       </c>
       <c r="I419" t="n">
         <v>0</v>
@@ -31104,10 +30284,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H420" t="inlineStr">
-        <is>
-          <t>2020-11-07 14:51:12</t>
-        </is>
+      <c r="H420" s="1" t="n">
+        <v>44142.61888888889</v>
       </c>
       <c r="I420" t="n">
         <v>0</v>
@@ -31175,10 +30353,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H421" t="inlineStr">
-        <is>
-          <t>2020-11-07 14:50:49</t>
-        </is>
+      <c r="H421" s="1" t="n">
+        <v>44142.61862268519</v>
       </c>
       <c r="I421" t="n">
         <v>0</v>
@@ -31250,10 +30426,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H422" t="inlineStr">
-        <is>
-          <t>2020-11-07 14:50:46</t>
-        </is>
+      <c r="H422" s="1" t="n">
+        <v>44142.61858796296</v>
       </c>
       <c r="I422" t="n">
         <v>1</v>
@@ -31325,10 +30499,8 @@
           <t>3681779344</t>
         </is>
       </c>
-      <c r="H423" t="inlineStr">
-        <is>
-          <t>2020-11-07 14:49:54</t>
-        </is>
+      <c r="H423" s="1" t="n">
+        <v>44142.61798611111</v>
       </c>
       <c r="I423" t="n">
         <v>0</v>
@@ -31404,10 +30576,8 @@
           <t>3681781505</t>
         </is>
       </c>
-      <c r="H424" t="inlineStr">
-        <is>
-          <t>2020-11-07 14:49:37</t>
-        </is>
+      <c r="H424" s="1" t="n">
+        <v>44142.61778935185</v>
       </c>
       <c r="I424" t="n">
         <v>12</v>
@@ -31483,10 +30653,8 @@
           <t>3681773839</t>
         </is>
       </c>
-      <c r="H425" t="inlineStr">
-        <is>
-          <t>2020-11-07 14:49:02</t>
-        </is>
+      <c r="H425" s="1" t="n">
+        <v>44142.61738425926</v>
       </c>
       <c r="I425" t="n">
         <v>0</v>
@@ -31558,10 +30726,8 @@
           <t>3681651675</t>
         </is>
       </c>
-      <c r="H426" t="inlineStr">
-        <is>
-          <t>2020-11-07 14:48:59</t>
-        </is>
+      <c r="H426" s="1" t="n">
+        <v>44142.61734953704</v>
       </c>
       <c r="I426" t="n">
         <v>0</v>
@@ -31637,10 +30803,8 @@
           <t>3681767021</t>
         </is>
       </c>
-      <c r="H427" t="inlineStr">
-        <is>
-          <t>2020-11-07 14:45:06</t>
-        </is>
+      <c r="H427" s="1" t="n">
+        <v>44142.61465277777</v>
       </c>
       <c r="I427" t="n">
         <v>0</v>
@@ -31712,10 +30876,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H428" t="inlineStr">
-        <is>
-          <t>2020-11-07 14:43:33</t>
-        </is>
+      <c r="H428" s="1" t="n">
+        <v>44142.61357638889</v>
       </c>
       <c r="I428" t="n">
         <v>0</v>
@@ -31783,10 +30945,8 @@
           <t>3681756857</t>
         </is>
       </c>
-      <c r="H429" t="inlineStr">
-        <is>
-          <t>2020-11-07 14:41:43</t>
-        </is>
+      <c r="H429" s="1" t="n">
+        <v>44142.61230324074</v>
       </c>
       <c r="I429" t="n">
         <v>1</v>
@@ -31854,10 +31014,8 @@
           <t>3681761008</t>
         </is>
       </c>
-      <c r="H430" t="inlineStr">
-        <is>
-          <t>2020-11-07 14:41:26</t>
-        </is>
+      <c r="H430" s="1" t="n">
+        <v>44142.61210648148</v>
       </c>
       <c r="I430" t="n">
         <v>0</v>
@@ -31925,10 +31083,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H431" t="inlineStr">
-        <is>
-          <t>2020-11-07 14:41:08</t>
-        </is>
+      <c r="H431" s="1" t="n">
+        <v>44142.61189814815</v>
       </c>
       <c r="I431" t="n">
         <v>11</v>
@@ -32000,10 +31156,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H432" t="inlineStr">
-        <is>
-          <t>2020-11-07 14:40:42</t>
-        </is>
+      <c r="H432" s="1" t="n">
+        <v>44142.61159722223</v>
       </c>
       <c r="I432" t="n">
         <v>0</v>
@@ -32071,10 +31225,8 @@
           <t>3681755169</t>
         </is>
       </c>
-      <c r="H433" t="inlineStr">
-        <is>
-          <t>2020-11-07 14:39:56</t>
-        </is>
+      <c r="H433" s="1" t="n">
+        <v>44142.61106481482</v>
       </c>
       <c r="I433" t="n">
         <v>0</v>
@@ -32138,10 +31290,8 @@
           <t>3681744033</t>
         </is>
       </c>
-      <c r="H434" t="inlineStr">
-        <is>
-          <t>2020-11-07 14:38:46</t>
-        </is>
+      <c r="H434" s="1" t="n">
+        <v>44142.61025462963</v>
       </c>
       <c r="I434" t="n">
         <v>0</v>
@@ -32213,10 +31363,8 @@
           <t>3681743627</t>
         </is>
       </c>
-      <c r="H435" t="inlineStr">
-        <is>
-          <t>2020-11-07 14:38:18</t>
-        </is>
+      <c r="H435" s="1" t="n">
+        <v>44142.60993055555</v>
       </c>
       <c r="I435" t="n">
         <v>0</v>
@@ -32280,10 +31428,8 @@
           <t>3681743026</t>
         </is>
       </c>
-      <c r="H436" t="inlineStr">
-        <is>
-          <t>2020-11-07 14:37:39</t>
-        </is>
+      <c r="H436" s="1" t="n">
+        <v>44142.60947916667</v>
       </c>
       <c r="I436" t="n">
         <v>4</v>
@@ -32347,10 +31493,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H437" t="inlineStr">
-        <is>
-          <t>2020-11-07 14:36:26</t>
-        </is>
+      <c r="H437" s="1" t="n">
+        <v>44142.60863425926</v>
       </c>
       <c r="I437" t="n">
         <v>2</v>
@@ -32422,10 +31566,8 @@
           <t>3681741511</t>
         </is>
       </c>
-      <c r="H438" t="inlineStr">
-        <is>
-          <t>2020-11-07 14:36:02</t>
-        </is>
+      <c r="H438" s="1" t="n">
+        <v>44142.60835648148</v>
       </c>
       <c r="I438" t="n">
         <v>0</v>
@@ -32497,10 +31639,8 @@
           <t>3681741433</t>
         </is>
       </c>
-      <c r="H439" t="inlineStr">
-        <is>
-          <t>2020-11-07 14:35:58</t>
-        </is>
+      <c r="H439" s="1" t="n">
+        <v>44142.60831018518</v>
       </c>
       <c r="I439" t="n">
         <v>0</v>
@@ -32572,10 +31712,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H440" t="inlineStr">
-        <is>
-          <t>2020-11-07 14:35:40</t>
-        </is>
+      <c r="H440" s="1" t="n">
+        <v>44142.60810185185</v>
       </c>
       <c r="I440" t="n">
         <v>226</v>
@@ -32643,10 +31781,8 @@
           <t>3681723348</t>
         </is>
       </c>
-      <c r="H441" t="inlineStr">
-        <is>
-          <t>2020-11-07 14:34:45</t>
-        </is>
+      <c r="H441" s="1" t="n">
+        <v>44142.60746527778</v>
       </c>
       <c r="I441" t="n">
         <v>0</v>
@@ -32722,10 +31858,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H442" t="inlineStr">
-        <is>
-          <t>2020-11-07 14:34:03</t>
-        </is>
+      <c r="H442" s="1" t="n">
+        <v>44142.60697916667</v>
       </c>
       <c r="I442" t="n">
         <v>0</v>
@@ -32793,10 +31927,8 @@
           <t>3681728337</t>
         </is>
       </c>
-      <c r="H443" t="inlineStr">
-        <is>
-          <t>2020-11-07 14:32:42</t>
-        </is>
+      <c r="H443" s="1" t="n">
+        <v>44142.60604166667</v>
       </c>
       <c r="I443" t="n">
         <v>0</v>
@@ -32864,10 +31996,8 @@
           <t>3681698792</t>
         </is>
       </c>
-      <c r="H444" t="inlineStr">
-        <is>
-          <t>2020-11-07 14:32:31</t>
-        </is>
+      <c r="H444" s="1" t="n">
+        <v>44142.60591435185</v>
       </c>
       <c r="I444" t="n">
         <v>2</v>
@@ -32931,10 +32061,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H445" t="inlineStr">
-        <is>
-          <t>2020-11-07 14:32:22</t>
-        </is>
+      <c r="H445" s="1" t="n">
+        <v>44142.60581018519</v>
       </c>
       <c r="I445" t="n">
         <v>0</v>
@@ -33010,10 +32138,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H446" t="inlineStr">
-        <is>
-          <t>2020-11-07 14:32:21</t>
-        </is>
+      <c r="H446" s="1" t="n">
+        <v>44142.60579861111</v>
       </c>
       <c r="I446" t="n">
         <v>0</v>
@@ -33077,10 +32203,8 @@
           <t>3681723348</t>
         </is>
       </c>
-      <c r="H447" t="inlineStr">
-        <is>
-          <t>2020-11-07 14:30:56</t>
-        </is>
+      <c r="H447" s="1" t="n">
+        <v>44142.60481481482</v>
       </c>
       <c r="I447" t="n">
         <v>0</v>
@@ -33144,10 +32268,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H448" t="inlineStr">
-        <is>
-          <t>2020-11-07 14:30:22</t>
-        </is>
+      <c r="H448" s="1" t="n">
+        <v>44142.6044212963</v>
       </c>
       <c r="I448" t="n">
         <v>1</v>
@@ -33223,10 +32345,8 @@
           <t>3681730265</t>
         </is>
       </c>
-      <c r="H449" t="inlineStr">
-        <is>
-          <t>2020-11-07 14:30:18</t>
-        </is>
+      <c r="H449" s="1" t="n">
+        <v>44142.604375</v>
       </c>
       <c r="I449" t="n">
         <v>0</v>
@@ -33298,10 +32418,8 @@
           <t>3681718310</t>
         </is>
       </c>
-      <c r="H450" t="inlineStr">
-        <is>
-          <t>2020-11-07 14:28:20</t>
-        </is>
+      <c r="H450" s="1" t="n">
+        <v>44142.60300925926</v>
       </c>
       <c r="I450" t="n">
         <v>6</v>
@@ -33377,10 +32495,8 @@
           <t>3681713741</t>
         </is>
       </c>
-      <c r="H451" t="inlineStr">
-        <is>
-          <t>2020-11-07 14:27:50</t>
-        </is>
+      <c r="H451" s="1" t="n">
+        <v>44142.60266203704</v>
       </c>
       <c r="I451" t="n">
         <v>10</v>
@@ -33456,10 +32572,8 @@
           <t>3681713144</t>
         </is>
       </c>
-      <c r="H452" t="inlineStr">
-        <is>
-          <t>2020-11-07 14:27:13</t>
-        </is>
+      <c r="H452" s="1" t="n">
+        <v>44142.60223379629</v>
       </c>
       <c r="I452" t="n">
         <v>0</v>
@@ -33535,10 +32649,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H453" t="inlineStr">
-        <is>
-          <t>2020-11-07 14:26:41</t>
-        </is>
+      <c r="H453" s="1" t="n">
+        <v>44142.60186342592</v>
       </c>
       <c r="I453" t="n">
         <v>0</v>
@@ -33610,10 +32722,8 @@
           <t>3681712534</t>
         </is>
       </c>
-      <c r="H454" t="inlineStr">
-        <is>
-          <t>2020-11-07 14:26:38</t>
-        </is>
+      <c r="H454" s="1" t="n">
+        <v>44142.6018287037</v>
       </c>
       <c r="I454" t="n">
         <v>0</v>
@@ -33685,10 +32795,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H455" t="inlineStr">
-        <is>
-          <t>2020-11-07 14:24:16</t>
-        </is>
+      <c r="H455" s="1" t="n">
+        <v>44142.60018518518</v>
       </c>
       <c r="I455" t="n">
         <v>1</v>
@@ -33764,10 +32872,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H456" t="inlineStr">
-        <is>
-          <t>2020-11-07 14:23:51</t>
-        </is>
+      <c r="H456" s="1" t="n">
+        <v>44142.59989583334</v>
       </c>
       <c r="I456" t="n">
         <v>1</v>
@@ -33835,10 +32941,8 @@
           <t>3681698792</t>
         </is>
       </c>
-      <c r="H457" t="inlineStr">
-        <is>
-          <t>2020-11-07 14:22:45</t>
-        </is>
+      <c r="H457" s="1" t="n">
+        <v>44142.59913194444</v>
       </c>
       <c r="I457" t="n">
         <v>4</v>
@@ -33910,10 +33014,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H458" t="inlineStr">
-        <is>
-          <t>2020-11-07 14:21:32</t>
-        </is>
+      <c r="H458" s="1" t="n">
+        <v>44142.59828703704</v>
       </c>
       <c r="I458" t="n">
         <v>1</v>
@@ -33981,10 +33083,8 @@
           <t>3681700412</t>
         </is>
       </c>
-      <c r="H459" t="inlineStr">
-        <is>
-          <t>2020-11-07 14:20:19</t>
-        </is>
+      <c r="H459" s="1" t="n">
+        <v>44142.59744212963</v>
       </c>
       <c r="I459" t="n">
         <v>2</v>
@@ -34048,10 +33148,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H460" t="inlineStr">
-        <is>
-          <t>2020-11-07 14:20:15</t>
-        </is>
+      <c r="H460" s="1" t="n">
+        <v>44142.59739583333</v>
       </c>
       <c r="I460" t="n">
         <v>0</v>
@@ -34119,10 +33217,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H461" t="inlineStr">
-        <is>
-          <t>2020-11-07 14:20:08</t>
-        </is>
+      <c r="H461" s="1" t="n">
+        <v>44142.59731481481</v>
       </c>
       <c r="I461" t="n">
         <v>0</v>
@@ -34198,10 +33294,8 @@
           <t>3681692138</t>
         </is>
       </c>
-      <c r="H462" t="inlineStr">
-        <is>
-          <t>2020-11-07 14:20:03</t>
-        </is>
+      <c r="H462" s="1" t="n">
+        <v>44142.59725694444</v>
       </c>
       <c r="I462" t="n">
         <v>1</v>
@@ -34273,10 +33367,8 @@
           <t>3681692138</t>
         </is>
       </c>
-      <c r="H463" t="inlineStr">
-        <is>
-          <t>2020-11-07 14:19:37</t>
-        </is>
+      <c r="H463" s="1" t="n">
+        <v>44142.59695601852</v>
       </c>
       <c r="I463" t="n">
         <v>97</v>
@@ -34340,10 +33432,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H464" t="inlineStr">
-        <is>
-          <t>2020-11-07 14:19:36</t>
-        </is>
+      <c r="H464" s="1" t="n">
+        <v>44142.59694444444</v>
       </c>
       <c r="I464" t="n">
         <v>0</v>
@@ -34407,10 +33497,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H465" t="inlineStr">
-        <is>
-          <t>2020-11-07 14:18:36</t>
-        </is>
+      <c r="H465" s="1" t="n">
+        <v>44142.59625</v>
       </c>
       <c r="I465" t="n">
         <v>1</v>
@@ -34486,10 +33574,8 @@
           <t>3681647253</t>
         </is>
       </c>
-      <c r="H466" t="inlineStr">
-        <is>
-          <t>2020-11-07 14:18:01</t>
-        </is>
+      <c r="H466" s="1" t="n">
+        <v>44142.59584490741</v>
       </c>
       <c r="I466" t="n">
         <v>6</v>
@@ -34561,10 +33647,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H467" t="inlineStr">
-        <is>
-          <t>2020-11-07 14:17:00</t>
-        </is>
+      <c r="H467" s="1" t="n">
+        <v>44142.59513888889</v>
       </c>
       <c r="I467" t="n">
         <v>0</v>
@@ -34636,10 +33720,8 @@
           <t>3681679612</t>
         </is>
       </c>
-      <c r="H468" t="inlineStr">
-        <is>
-          <t>2020-11-07 14:17:00</t>
-        </is>
+      <c r="H468" s="1" t="n">
+        <v>44142.59513888889</v>
       </c>
       <c r="I468" t="n">
         <v>1</v>
@@ -34703,10 +33785,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H469" t="inlineStr">
-        <is>
-          <t>2020-11-07 14:16:47</t>
-        </is>
+      <c r="H469" s="1" t="n">
+        <v>44142.59498842592</v>
       </c>
       <c r="I469" t="n">
         <v>1</v>
@@ -34770,10 +33850,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H470" t="inlineStr">
-        <is>
-          <t>2020-11-07 14:16:00</t>
-        </is>
+      <c r="H470" s="1" t="n">
+        <v>44142.59444444445</v>
       </c>
       <c r="I470" t="n">
         <v>0</v>
@@ -34842,10 +33920,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H471" t="inlineStr">
-        <is>
-          <t>2020-11-07 14:15:40</t>
-        </is>
+      <c r="H471" s="1" t="n">
+        <v>44142.59421296296</v>
       </c>
       <c r="I471" t="n">
         <v>24</v>
@@ -34921,10 +33997,8 @@
           <t>3681678238</t>
         </is>
       </c>
-      <c r="H472" t="inlineStr">
-        <is>
-          <t>2020-11-07 14:15:37</t>
-        </is>
+      <c r="H472" s="1" t="n">
+        <v>44142.59417824074</v>
       </c>
       <c r="I472" t="n">
         <v>0</v>
@@ -34993,10 +34067,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H473" t="inlineStr">
-        <is>
-          <t>2020-11-07 14:15:18</t>
-        </is>
+      <c r="H473" s="1" t="n">
+        <v>44142.59395833333</v>
       </c>
       <c r="I473" t="n">
         <v>20</v>
@@ -35072,10 +34144,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H474" t="inlineStr">
-        <is>
-          <t>2020-11-07 14:14:57</t>
-        </is>
+      <c r="H474" s="1" t="n">
+        <v>44142.59371527778</v>
       </c>
       <c r="I474" t="n">
         <v>0</v>
@@ -35151,10 +34221,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H475" t="inlineStr">
-        <is>
-          <t>2020-11-07 14:14:56</t>
-        </is>
+      <c r="H475" s="1" t="n">
+        <v>44142.5937037037</v>
       </c>
       <c r="I475" t="n">
         <v>0</v>
@@ -35222,10 +34290,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H476" t="inlineStr">
-        <is>
-          <t>2020-11-07 14:13:09</t>
-        </is>
+      <c r="H476" s="1" t="n">
+        <v>44142.59246527778</v>
       </c>
       <c r="I476" t="n">
         <v>0</v>
@@ -35290,10 +34356,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H477" t="inlineStr">
-        <is>
-          <t>2020-11-07 14:11:43</t>
-        </is>
+      <c r="H477" s="1" t="n">
+        <v>44142.59146990741</v>
       </c>
       <c r="I477" t="n">
         <v>0</v>
@@ -35369,10 +34433,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H478" t="inlineStr">
-        <is>
-          <t>2020-11-07 14:11:08</t>
-        </is>
+      <c r="H478" s="1" t="n">
+        <v>44142.59106481481</v>
       </c>
       <c r="I478" t="n">
         <v>0</v>
@@ -35440,10 +34502,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H479" t="inlineStr">
-        <is>
-          <t>2020-11-07 14:10:44</t>
-        </is>
+      <c r="H479" s="1" t="n">
+        <v>44142.59078703704</v>
       </c>
       <c r="I479" t="n">
         <v>0</v>
@@ -35519,10 +34579,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H480" t="inlineStr">
-        <is>
-          <t>2020-11-07 14:10:35</t>
-        </is>
+      <c r="H480" s="1" t="n">
+        <v>44142.59068287037</v>
       </c>
       <c r="I480" t="n">
         <v>56</v>
@@ -35598,10 +34656,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H481" t="inlineStr">
-        <is>
-          <t>2020-11-07 14:09:50</t>
-        </is>
+      <c r="H481" s="1" t="n">
+        <v>44142.59016203704</v>
       </c>
       <c r="I481" t="n">
         <v>45</v>
@@ -35665,10 +34721,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H482" t="inlineStr">
-        <is>
-          <t>2020-11-07 14:09:19</t>
-        </is>
+      <c r="H482" s="1" t="n">
+        <v>44142.58980324074</v>
       </c>
       <c r="I482" t="n">
         <v>0</v>
@@ -35740,10 +34794,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H483" t="inlineStr">
-        <is>
-          <t>2020-11-07 14:08:42</t>
-        </is>
+      <c r="H483" s="1" t="n">
+        <v>44142.589375</v>
       </c>
       <c r="I483" t="n">
         <v>0</v>
@@ -35807,10 +34859,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H484" t="inlineStr">
-        <is>
-          <t>2020-11-07 14:08:07</t>
-        </is>
+      <c r="H484" s="1" t="n">
+        <v>44142.58896990741</v>
       </c>
       <c r="I484" t="n">
         <v>0</v>
@@ -35886,10 +34936,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H485" t="inlineStr">
-        <is>
-          <t>2020-11-07 14:08:06</t>
-        </is>
+      <c r="H485" s="1" t="n">
+        <v>44142.58895833333</v>
       </c>
       <c r="I485" t="n">
         <v>0</v>
@@ -35965,10 +35013,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H486" t="inlineStr">
-        <is>
-          <t>2020-11-07 14:07:57</t>
-        </is>
+      <c r="H486" s="1" t="n">
+        <v>44142.58885416666</v>
       </c>
       <c r="I486" t="n">
         <v>0</v>
@@ -36040,10 +35086,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H487" t="inlineStr">
-        <is>
-          <t>2020-11-07 14:07:51</t>
-        </is>
+      <c r="H487" s="1" t="n">
+        <v>44142.58878472223</v>
       </c>
       <c r="I487" t="n">
         <v>1</v>
@@ -36115,10 +35159,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H488" t="inlineStr">
-        <is>
-          <t>2020-11-07 14:07:42</t>
-        </is>
+      <c r="H488" s="1" t="n">
+        <v>44142.58868055556</v>
       </c>
       <c r="I488" t="n">
         <v>8</v>
@@ -36178,10 +35220,8 @@
           <t>3681647253</t>
         </is>
       </c>
-      <c r="H489" t="inlineStr">
-        <is>
-          <t>2020-11-07 14:07:09</t>
-        </is>
+      <c r="H489" s="1" t="n">
+        <v>44142.58829861111</v>
       </c>
       <c r="I489" t="n">
         <v>28</v>
@@ -36258,10 +35298,8 @@
           <t>3681651675</t>
         </is>
       </c>
-      <c r="H490" t="inlineStr">
-        <is>
-          <t>2020-11-07 14:06:04</t>
-        </is>
+      <c r="H490" s="1" t="n">
+        <v>44142.58754629629</v>
       </c>
       <c r="I490" t="n">
         <v>12</v>
@@ -36329,10 +35367,8 @@
           <t>3681651675</t>
         </is>
       </c>
-      <c r="H491" t="inlineStr">
-        <is>
-          <t>2020-11-07 14:05:02</t>
-        </is>
+      <c r="H491" s="1" t="n">
+        <v>44142.5868287037</v>
       </c>
       <c r="I491" t="n">
         <v>0</v>
@@ -36400,10 +35436,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H492" t="inlineStr">
-        <is>
-          <t>2020-11-07 14:04:42</t>
-        </is>
+      <c r="H492" s="1" t="n">
+        <v>44142.58659722222</v>
       </c>
       <c r="I492" t="n">
         <v>3</v>
@@ -36475,10 +35509,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H493" t="inlineStr">
-        <is>
-          <t>2020-11-07 14:04:37</t>
-        </is>
+      <c r="H493" s="1" t="n">
+        <v>44142.58653935185</v>
       </c>
       <c r="I493" t="n">
         <v>1</v>
@@ -36550,10 +35582,8 @@
           <t>3681647253</t>
         </is>
       </c>
-      <c r="H494" t="inlineStr">
-        <is>
-          <t>2020-11-07 14:04:36</t>
-        </is>
+      <c r="H494" s="1" t="n">
+        <v>44142.58652777778</v>
       </c>
       <c r="I494" t="n">
         <v>39</v>
@@ -36621,10 +35651,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H495" t="inlineStr">
-        <is>
-          <t>2020-11-07 14:04:06</t>
-        </is>
+      <c r="H495" s="1" t="n">
+        <v>44142.58618055555</v>
       </c>
       <c r="I495" t="n">
         <v>3</v>
@@ -36688,10 +35716,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H496" t="inlineStr">
-        <is>
-          <t>2020-11-07 14:04:06</t>
-        </is>
+      <c r="H496" s="1" t="n">
+        <v>44142.58618055555</v>
       </c>
       <c r="I496" t="n">
         <v>0</v>
@@ -36751,10 +35777,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H497" t="inlineStr">
-        <is>
-          <t>2020-11-07 14:04:00</t>
-        </is>
+      <c r="H497" s="1" t="n">
+        <v>44142.58611111111</v>
       </c>
       <c r="I497" t="n">
         <v>0</v>
@@ -36826,10 +35850,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H498" t="inlineStr">
-        <is>
-          <t>2020-11-07 14:03:35</t>
-        </is>
+      <c r="H498" s="1" t="n">
+        <v>44142.58582175926</v>
       </c>
       <c r="I498" t="n">
         <v>1</v>
@@ -36897,10 +35919,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H499" t="inlineStr">
-        <is>
-          <t>2020-11-07 14:03:25</t>
-        </is>
+      <c r="H499" s="1" t="n">
+        <v>44142.58570601852</v>
       </c>
       <c r="I499" t="n">
         <v>0</v>
@@ -36968,10 +35988,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H500" t="inlineStr">
-        <is>
-          <t>2020-11-07 14:02:56</t>
-        </is>
+      <c r="H500" s="1" t="n">
+        <v>44142.58537037037</v>
       </c>
       <c r="I500" t="n">
         <v>2</v>
@@ -37048,10 +36066,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H501" t="inlineStr">
-        <is>
-          <t>2020-11-07 14:02:56</t>
-        </is>
+      <c r="H501" s="1" t="n">
+        <v>44142.58537037037</v>
       </c>
       <c r="I501" t="n">
         <v>0</v>
@@ -37115,10 +36131,8 @@
           <t>3681639509</t>
         </is>
       </c>
-      <c r="H502" t="inlineStr">
-        <is>
-          <t>2020-11-07 14:02:51</t>
-        </is>
+      <c r="H502" s="1" t="n">
+        <v>44142.5853125</v>
       </c>
       <c r="I502" t="n">
         <v>0</v>
@@ -37194,10 +36208,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H503" t="inlineStr">
-        <is>
-          <t>2020-11-07 14:02:45</t>
-        </is>
+      <c r="H503" s="1" t="n">
+        <v>44142.58524305555</v>
       </c>
       <c r="I503" t="n">
         <v>0</v>
@@ -37261,10 +36273,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H504" t="inlineStr">
-        <is>
-          <t>2020-11-07 14:02:37</t>
-        </is>
+      <c r="H504" s="1" t="n">
+        <v>44142.58515046296</v>
       </c>
       <c r="I504" t="n">
         <v>2</v>
@@ -37332,10 +36342,8 @@
           <t>3681642950</t>
         </is>
       </c>
-      <c r="H505" t="inlineStr">
-        <is>
-          <t>2020-11-07 14:02:29</t>
-        </is>
+      <c r="H505" s="1" t="n">
+        <v>44142.58505787037</v>
       </c>
       <c r="I505" t="n">
         <v>0</v>
@@ -37411,10 +36419,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H506" t="inlineStr">
-        <is>
-          <t>2020-11-07 14:02:20</t>
-        </is>
+      <c r="H506" s="1" t="n">
+        <v>44142.58495370371</v>
       </c>
       <c r="I506" t="n">
         <v>0</v>
@@ -37482,10 +36488,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H507" t="inlineStr">
-        <is>
-          <t>2020-11-07 14:02:01</t>
-        </is>
+      <c r="H507" s="1" t="n">
+        <v>44142.5847337963</v>
       </c>
       <c r="I507" t="n">
         <v>0</v>
@@ -37553,10 +36557,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H508" t="inlineStr">
-        <is>
-          <t>2020-11-07 14:01:57</t>
-        </is>
+      <c r="H508" s="1" t="n">
+        <v>44142.5846875</v>
       </c>
       <c r="I508" t="n">
         <v>1</v>
@@ -37620,10 +36622,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H509" t="inlineStr">
-        <is>
-          <t>2020-11-07 14:01:49</t>
-        </is>
+      <c r="H509" s="1" t="n">
+        <v>44142.58459490741</v>
       </c>
       <c r="I509" t="n">
         <v>82</v>
@@ -37691,10 +36691,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H510" t="inlineStr">
-        <is>
-          <t>2020-11-07 14:01:46</t>
-        </is>
+      <c r="H510" s="1" t="n">
+        <v>44142.58456018518</v>
       </c>
       <c r="I510" t="n">
         <v>1</v>
@@ -37770,10 +36768,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H511" t="inlineStr">
-        <is>
-          <t>2020-11-07 14:01:43</t>
-        </is>
+      <c r="H511" s="1" t="n">
+        <v>44142.58452546296</v>
       </c>
       <c r="I511" t="n">
         <v>0</v>
@@ -37841,10 +36837,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H512" t="inlineStr">
-        <is>
-          <t>2020-11-07 14:01:43</t>
-        </is>
+      <c r="H512" s="1" t="n">
+        <v>44142.58452546296</v>
       </c>
       <c r="I512" t="n">
         <v>0</v>
@@ -37912,10 +36906,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H513" t="inlineStr">
-        <is>
-          <t>2020-11-07 14:01:36</t>
-        </is>
+      <c r="H513" s="1" t="n">
+        <v>44142.58444444444</v>
       </c>
       <c r="I513" t="n">
         <v>480</v>
@@ -37983,10 +36975,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H514" t="inlineStr">
-        <is>
-          <t>2020-11-07 14:01:32</t>
-        </is>
+      <c r="H514" s="1" t="n">
+        <v>44142.58439814814</v>
       </c>
       <c r="I514" t="n">
         <v>2</v>
@@ -38054,10 +37044,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H515" t="inlineStr">
-        <is>
-          <t>2020-11-07 14:01:26</t>
-        </is>
+      <c r="H515" s="1" t="n">
+        <v>44142.58432870371</v>
       </c>
       <c r="I515" t="n">
         <v>0</v>
@@ -38133,10 +37121,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H516" t="inlineStr">
-        <is>
-          <t>2020-11-07 14:01:16</t>
-        </is>
+      <c r="H516" s="1" t="n">
+        <v>44142.58421296296</v>
       </c>
       <c r="I516" t="n">
         <v>1</v>
@@ -38200,10 +37186,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H517" t="inlineStr">
-        <is>
-          <t>2020-11-07 14:01:15</t>
-        </is>
+      <c r="H517" s="1" t="n">
+        <v>44142.58420138889</v>
       </c>
       <c r="I517" t="n">
         <v>3</v>
@@ -38268,10 +37252,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H518" t="inlineStr">
-        <is>
-          <t>2020-11-07 14:01:13</t>
-        </is>
+      <c r="H518" s="1" t="n">
+        <v>44142.58417824074</v>
       </c>
       <c r="I518" t="n">
         <v>0</v>
@@ -38347,10 +37329,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H519" t="inlineStr">
-        <is>
-          <t>2020-11-07 14:01:13</t>
-        </is>
+      <c r="H519" s="1" t="n">
+        <v>44142.58417824074</v>
       </c>
       <c r="I519" t="n">
         <v>1</v>
@@ -38426,10 +37406,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H520" t="inlineStr">
-        <is>
-          <t>2020-11-07 14:01:11</t>
-        </is>
+      <c r="H520" s="1" t="n">
+        <v>44142.58415509259</v>
       </c>
       <c r="I520" t="n">
         <v>1</v>
@@ -38505,10 +37483,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H521" t="inlineStr">
-        <is>
-          <t>2020-11-07 14:01:05</t>
-        </is>
+      <c r="H521" s="1" t="n">
+        <v>44142.58408564814</v>
       </c>
       <c r="I521" t="n">
         <v>1211</v>
@@ -38585,10 +37561,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H522" t="inlineStr">
-        <is>
-          <t>2020-11-07 14:01:04</t>
-        </is>
+      <c r="H522" s="1" t="n">
+        <v>44142.58407407408</v>
       </c>
       <c r="I522" t="n">
         <v>19</v>
@@ -38656,10 +37630,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H523" t="inlineStr">
-        <is>
-          <t>2020-11-07 14:01:02</t>
-        </is>
+      <c r="H523" s="1" t="n">
+        <v>44142.58405092593</v>
       </c>
       <c r="I523" t="n">
         <v>0</v>
@@ -38719,10 +37691,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H524" t="inlineStr">
-        <is>
-          <t>2020-11-07 14:00:53</t>
-        </is>
+      <c r="H524" s="1" t="n">
+        <v>44142.58394675926</v>
       </c>
       <c r="I524" t="n">
         <v>0</v>
@@ -38795,10 +37765,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H525" t="inlineStr">
-        <is>
-          <t>2020-11-07 14:00:53</t>
-        </is>
+      <c r="H525" s="1" t="n">
+        <v>44142.58394675926</v>
       </c>
       <c r="I525" t="n">
         <v>1</v>
@@ -38866,10 +37834,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H526" t="inlineStr">
-        <is>
-          <t>2020-11-07 14:00:51</t>
-        </is>
+      <c r="H526" s="1" t="n">
+        <v>44142.58392361111</v>
       </c>
       <c r="I526" t="n">
         <v>171</v>
@@ -38933,10 +37899,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H527" t="inlineStr">
-        <is>
-          <t>2020-11-07 14:00:51</t>
-        </is>
+      <c r="H527" s="1" t="n">
+        <v>44142.58392361111</v>
       </c>
       <c r="I527" t="n">
         <v>0</v>
@@ -39000,10 +37964,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H528" t="inlineStr">
-        <is>
-          <t>2020-11-07 14:00:48</t>
-        </is>
+      <c r="H528" s="1" t="n">
+        <v>44142.58388888889</v>
       </c>
       <c r="I528" t="n">
         <v>0</v>
@@ -39079,10 +38041,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H529" t="inlineStr">
-        <is>
-          <t>2020-11-07 14:00:41</t>
-        </is>
+      <c r="H529" s="1" t="n">
+        <v>44142.58380787037</v>
       </c>
       <c r="I529" t="n">
         <v>1</v>
@@ -39146,10 +38106,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H530" t="inlineStr">
-        <is>
-          <t>2020-11-07 14:00:37</t>
-        </is>
+      <c r="H530" s="1" t="n">
+        <v>44142.58376157407</v>
       </c>
       <c r="I530" t="n">
         <v>1</v>
@@ -39225,10 +38183,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H531" t="inlineStr">
-        <is>
-          <t>2020-11-07 14:00:36</t>
-        </is>
+      <c r="H531" s="1" t="n">
+        <v>44142.58375</v>
       </c>
       <c r="I531" t="n">
         <v>1</v>
@@ -39296,10 +38252,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H532" t="inlineStr">
-        <is>
-          <t>2020-11-07 14:00:35</t>
-        </is>
+      <c r="H532" s="1" t="n">
+        <v>44142.58373842593</v>
       </c>
       <c r="I532" t="n">
         <v>0</v>
@@ -39371,10 +38325,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H533" t="inlineStr">
-        <is>
-          <t>2020-11-07 14:00:34</t>
-        </is>
+      <c r="H533" s="1" t="n">
+        <v>44142.58372685185</v>
       </c>
       <c r="I533" t="n">
         <v>2</v>
@@ -39446,10 +38398,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H534" t="inlineStr">
-        <is>
-          <t>2020-11-07 14:00:29</t>
-        </is>
+      <c r="H534" s="1" t="n">
+        <v>44142.58366898148</v>
       </c>
       <c r="I534" t="n">
         <v>0</v>
